--- a/init-data/hzero-file/hzero_platform/hzero-iam-menu.xlsx
+++ b/init-data/hzero-file/hzero_platform/hzero-iam-menu.xlsx
@@ -1,36 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HZERO-OPEN-PROJECTS\hzero-resource\init-data\hzero-file\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BF52D0-560A-4DA9-929F-ED2C2FB1FCD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="菜单SAAS版" sheetId="2" r:id="rId2"/>
-    <sheet name="菜单权限" sheetId="3" r:id="rId3"/>
-    <sheet name="角色权限" sheetId="4" r:id="rId4"/>
-    <sheet name="菜单标签数据" sheetId="5" r:id="rId5"/>
+    <sheet name="菜单" r:id="rId5" sheetId="2"/>
+    <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
+    <sheet name="角色权限" r:id="rId7" sheetId="4"/>
+    <sheet name="菜单标签数据" r:id="rId8" sheetId="5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="564">
   <si>
     <r>
       <rPr>
@@ -1999,13 +1998,13 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-17</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>
   </si>
   <si>
-    <t>菜单-saas</t>
+    <t>菜单</t>
   </si>
   <si>
     <t>iam_menu</t>
@@ -2320,9 +2319,6 @@
     <t>30</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>/hfile/water-mark-config</t>
   </si>
   <si>
@@ -2881,6 +2877,9 @@
     <t>#permission_code</t>
   </si>
   <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
     <t>iam_menu_permission-8</t>
   </si>
   <si>
@@ -3253,10 +3252,7 @@
     <t>role/organization/default/template/administrator</t>
   </si>
   <si>
-    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/administrator</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/organization/default/template/administrator</t>
+    <t>role/organization/default/administrator|HZERO.HZERO.role/organization/default/template/administrator</t>
   </si>
   <si>
     <t>Tenant Admin</t>
@@ -3547,7 +3543,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="77">
     <font>
       <sz val="12"/>
@@ -3667,358 +3664,299 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4211,65 +4149,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4285,10 +4164,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4628,36 +4566,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4666,21 +4604,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="88" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4791,11 +4729,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -4833,19 +4771,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="86" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="86"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="86" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="86"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -4869,39 +4807,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Y65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4911,13 +4849,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" t="s" s="60">
         <v>53</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" t="s" s="61">
         <v>54</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" t="s" s="62">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4929,10 +4867,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" t="s" s="63">
         <v>59</v>
       </c>
-      <c r="K7" s="59" t="s">
+      <c r="K7" t="s" s="64">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -4953,7 +4891,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="60" t="s">
+      <c r="R7" t="s" s="65">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -4978,7 +4916,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -5031,7 +4969,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9">
       <c r="E9" t="s">
         <v>87</v>
       </c>
@@ -5050,9 +4988,8 @@
       <c r="J9" t="s">
         <v>80</v>
       </c>
-      <c r="K9" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
+      <c r="K9">
+        <f>菜单!$E$8</f>
       </c>
       <c r="L9" t="s">
         <v>92</v>
@@ -5088,7 +5025,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10">
       <c r="E10" t="s">
         <v>97</v>
       </c>
@@ -5104,9 +5041,8 @@
       <c r="J10" t="s">
         <v>80</v>
       </c>
-      <c r="K10" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+      <c r="K10">
+        <f>菜单!$E$9</f>
       </c>
       <c r="L10" t="s">
         <v>100</v>
@@ -5139,7 +5075,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11">
       <c r="E11" t="s">
         <v>103</v>
       </c>
@@ -5155,9 +5091,8 @@
       <c r="J11" t="s">
         <v>80</v>
       </c>
-      <c r="K11" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+      <c r="K11">
+        <f>菜单!$E$9</f>
       </c>
       <c r="L11" t="s">
         <v>100</v>
@@ -5190,7 +5125,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12">
       <c r="E12" t="s">
         <v>107</v>
       </c>
@@ -5206,9 +5141,8 @@
       <c r="J12" t="s">
         <v>80</v>
       </c>
-      <c r="K12" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+      <c r="K12">
+        <f>菜单!$E$9</f>
       </c>
       <c r="L12" t="s">
         <v>100</v>
@@ -5241,7 +5175,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13">
       <c r="E13" t="s">
         <v>111</v>
       </c>
@@ -5257,9 +5191,8 @@
       <c r="J13" t="s">
         <v>80</v>
       </c>
-      <c r="K13" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+      <c r="K13">
+        <f>菜单!$E$9</f>
       </c>
       <c r="L13" t="s">
         <v>100</v>
@@ -5292,7 +5225,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14">
       <c r="E14" t="s">
         <v>115</v>
       </c>
@@ -5308,9 +5241,8 @@
       <c r="J14" t="s">
         <v>80</v>
       </c>
-      <c r="K14" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+      <c r="K14">
+        <f>菜单!$E$9</f>
       </c>
       <c r="L14" t="s">
         <v>100</v>
@@ -5340,7 +5272,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15">
       <c r="E15" t="s">
         <v>119</v>
       </c>
@@ -5359,9 +5291,8 @@
       <c r="J15" t="s">
         <v>80</v>
       </c>
-      <c r="K15" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+      <c r="K15">
+        <f>菜单!$E$9</f>
       </c>
       <c r="L15" t="s">
         <v>100</v>
@@ -5394,7 +5325,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16">
       <c r="E16" t="s">
         <v>125</v>
       </c>
@@ -5410,9 +5341,8 @@
       <c r="J16" t="s">
         <v>80</v>
       </c>
-      <c r="K16" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+      <c r="K16">
+        <f>菜单!$E$9</f>
       </c>
       <c r="L16" t="s">
         <v>100</v>
@@ -5442,7 +5372,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="5:24">
+    <row r="17">
       <c r="E17" t="s">
         <v>129</v>
       </c>
@@ -5458,9 +5388,8 @@
       <c r="J17" t="s">
         <v>80</v>
       </c>
-      <c r="K17" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+      <c r="K17">
+        <f>菜单!$E$9</f>
       </c>
       <c r="L17" t="s">
         <v>100</v>
@@ -5490,7 +5419,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="5:24">
+    <row r="18">
       <c r="E18" t="s">
         <v>133</v>
       </c>
@@ -5509,9 +5438,8 @@
       <c r="J18" t="s">
         <v>80</v>
       </c>
-      <c r="K18" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
+      <c r="K18">
+        <f>菜单!$E$8</f>
       </c>
       <c r="L18" t="s">
         <v>92</v>
@@ -5547,7 +5475,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="5:24">
+    <row r="19">
       <c r="E19" t="s">
         <v>142</v>
       </c>
@@ -5563,9 +5491,8 @@
       <c r="J19" t="s">
         <v>80</v>
       </c>
-      <c r="K19" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
+      <c r="K19">
+        <f>菜单!$E$18</f>
       </c>
       <c r="L19" t="s">
         <v>100</v>
@@ -5595,7 +5522,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="5:24">
+    <row r="20">
       <c r="E20" t="s">
         <v>146</v>
       </c>
@@ -5614,9 +5541,8 @@
       <c r="J20" t="s">
         <v>80</v>
       </c>
-      <c r="K20" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
+      <c r="K20">
+        <f>菜单!$E$18</f>
       </c>
       <c r="L20" t="s">
         <v>100</v>
@@ -5646,7 +5572,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="5:24">
+    <row r="21">
       <c r="E21" t="s">
         <v>151</v>
       </c>
@@ -5665,9 +5591,8 @@
       <c r="J21" t="s">
         <v>80</v>
       </c>
-      <c r="K21" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
+      <c r="K21">
+        <f>菜单!$E$8</f>
       </c>
       <c r="L21" t="s">
         <v>92</v>
@@ -5678,20 +5603,17 @@
       <c r="N21" t="s">
         <v>84</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>157</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
+        <v>81</v>
+      </c>
+      <c r="R21" t="s">
+        <v>81</v>
+      </c>
+      <c r="S21" t="s">
         <v>158</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>81</v>
-      </c>
-      <c r="R21" t="s">
-        <v>81</v>
-      </c>
-      <c r="S21" t="s">
-        <v>159</v>
       </c>
       <c r="T21" t="s">
         <v>81</v>
@@ -5703,25 +5625,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="5:24">
+    <row r="22">
       <c r="E22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" t="s">
         <v>160</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>161</v>
       </c>
-      <c r="G22" t="s">
-        <v>162</v>
-      </c>
       <c r="H22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J22" t="s">
         <v>80</v>
       </c>
-      <c r="K22" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
+      <c r="K22">
+        <f>菜单!$E$21</f>
       </c>
       <c r="L22" t="s">
         <v>100</v>
@@ -5739,7 +5660,7 @@
         <v>81</v>
       </c>
       <c r="S22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T22" t="s">
         <v>81</v>
@@ -5751,25 +5672,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="5:24">
+    <row r="23">
       <c r="E23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" t="s">
         <v>164</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>165</v>
       </c>
-      <c r="G23" t="s">
-        <v>166</v>
-      </c>
       <c r="H23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J23" t="s">
         <v>80</v>
       </c>
-      <c r="K23" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
+      <c r="K23">
+        <f>菜单!$E$21</f>
       </c>
       <c r="L23" t="s">
         <v>100</v>
@@ -5787,7 +5707,7 @@
         <v>81</v>
       </c>
       <c r="S23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T23" t="s">
         <v>81</v>
@@ -5799,25 +5719,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="5:24">
+    <row r="24">
       <c r="E24" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" t="s">
         <v>168</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>169</v>
       </c>
-      <c r="G24" t="s">
-        <v>170</v>
-      </c>
       <c r="H24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J24" t="s">
         <v>80</v>
       </c>
-      <c r="K24" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
+      <c r="K24">
+        <f>菜单!$E$21</f>
       </c>
       <c r="L24" t="s">
         <v>100</v>
@@ -5835,13 +5754,13 @@
         <v>81</v>
       </c>
       <c r="S24" t="s">
+        <v>170</v>
+      </c>
+      <c r="T24" t="s">
+        <v>81</v>
+      </c>
+      <c r="U24" t="s">
         <v>171</v>
-      </c>
-      <c r="T24" t="s">
-        <v>81</v>
-      </c>
-      <c r="U24" t="s">
-        <v>172</v>
       </c>
       <c r="V24" t="s">
         <v>86</v>
@@ -5850,12 +5769,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="5:24">
+    <row r="25">
       <c r="E25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" t="s">
         <v>173</v>
-      </c>
-      <c r="F25" t="s">
-        <v>174</v>
       </c>
       <c r="G25" t="s">
         <v>77</v>
@@ -5867,7 +5786,7 @@
         <v>79</v>
       </c>
       <c r="J25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K25" t="s">
         <v>81</v>
@@ -5876,7 +5795,7 @@
         <v>82</v>
       </c>
       <c r="M25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N25" t="s">
         <v>84</v>
@@ -5891,7 +5810,7 @@
         <v>81</v>
       </c>
       <c r="S25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T25" t="s">
         <v>81</v>
@@ -5903,28 +5822,27 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="5:24">
+    <row r="26">
       <c r="E26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" t="s">
         <v>177</v>
-      </c>
-      <c r="F26" t="s">
-        <v>178</v>
       </c>
       <c r="G26" t="s">
         <v>89</v>
       </c>
       <c r="H26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I26" t="s">
         <v>91</v>
       </c>
       <c r="J26" t="s">
-        <v>175</v>
-      </c>
-      <c r="K26" t="str">
-        <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
+        <v>174</v>
+      </c>
+      <c r="K26">
+        <f>菜单!$E$25</f>
       </c>
       <c r="L26" t="s">
         <v>92</v>
@@ -5948,7 +5866,7 @@
         <v>81</v>
       </c>
       <c r="S26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T26" t="s">
         <v>81</v>
@@ -5960,12 +5878,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="5:24">
+    <row r="27">
       <c r="E27" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" t="s">
         <v>181</v>
-      </c>
-      <c r="F27" t="s">
-        <v>182</v>
       </c>
       <c r="G27" t="s">
         <v>99</v>
@@ -5974,11 +5892,10 @@
         <v>99</v>
       </c>
       <c r="J27" t="s">
-        <v>175</v>
-      </c>
-      <c r="K27" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
+        <v>174</v>
+      </c>
+      <c r="K27">
+        <f>菜单!$E$26</f>
       </c>
       <c r="L27" t="s">
         <v>100</v>
@@ -5999,7 +5916,7 @@
         <v>81</v>
       </c>
       <c r="S27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T27" t="s">
         <v>81</v>
@@ -6011,12 +5928,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="5:24">
+    <row r="28">
       <c r="E28" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" t="s">
         <v>184</v>
-      </c>
-      <c r="F28" t="s">
-        <v>185</v>
       </c>
       <c r="G28" t="s">
         <v>105</v>
@@ -6025,11 +5942,10 @@
         <v>105</v>
       </c>
       <c r="J28" t="s">
-        <v>175</v>
-      </c>
-      <c r="K28" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
+        <v>174</v>
+      </c>
+      <c r="K28">
+        <f>菜单!$E$26</f>
       </c>
       <c r="L28" t="s">
         <v>100</v>
@@ -6050,7 +5966,7 @@
         <v>81</v>
       </c>
       <c r="S28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T28" t="s">
         <v>81</v>
@@ -6062,12 +5978,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="5:24">
+    <row r="29">
       <c r="E29" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" t="s">
         <v>187</v>
-      </c>
-      <c r="F29" t="s">
-        <v>188</v>
       </c>
       <c r="G29" t="s">
         <v>109</v>
@@ -6076,11 +5992,10 @@
         <v>109</v>
       </c>
       <c r="J29" t="s">
-        <v>175</v>
-      </c>
-      <c r="K29" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
+        <v>174</v>
+      </c>
+      <c r="K29">
+        <f>菜单!$E$26</f>
       </c>
       <c r="L29" t="s">
         <v>100</v>
@@ -6101,7 +6016,7 @@
         <v>81</v>
       </c>
       <c r="S29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T29" t="s">
         <v>81</v>
@@ -6113,12 +6028,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="5:24">
+    <row r="30">
       <c r="E30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" t="s">
         <v>190</v>
-      </c>
-      <c r="F30" t="s">
-        <v>191</v>
       </c>
       <c r="G30" t="s">
         <v>113</v>
@@ -6127,11 +6042,10 @@
         <v>113</v>
       </c>
       <c r="J30" t="s">
-        <v>175</v>
-      </c>
-      <c r="K30" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
+        <v>174</v>
+      </c>
+      <c r="K30">
+        <f>菜单!$E$26</f>
       </c>
       <c r="L30" t="s">
         <v>100</v>
@@ -6152,7 +6066,7 @@
         <v>81</v>
       </c>
       <c r="S30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T30" t="s">
         <v>81</v>
@@ -6164,12 +6078,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="5:24">
+    <row r="31">
       <c r="E31" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" t="s">
         <v>193</v>
-      </c>
-      <c r="F31" t="s">
-        <v>194</v>
       </c>
       <c r="G31" t="s">
         <v>117</v>
@@ -6178,11 +6092,10 @@
         <v>117</v>
       </c>
       <c r="J31" t="s">
-        <v>175</v>
-      </c>
-      <c r="K31" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
+        <v>174</v>
+      </c>
+      <c r="K31">
+        <f>菜单!$E$26</f>
       </c>
       <c r="L31" t="s">
         <v>100</v>
@@ -6200,7 +6113,7 @@
         <v>81</v>
       </c>
       <c r="S31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T31" t="s">
         <v>81</v>
@@ -6212,12 +6125,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="5:24">
+    <row r="32">
       <c r="E32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" t="s">
         <v>196</v>
-      </c>
-      <c r="F32" t="s">
-        <v>197</v>
       </c>
       <c r="G32" t="s">
         <v>121</v>
@@ -6226,11 +6139,10 @@
         <v>121</v>
       </c>
       <c r="J32" t="s">
-        <v>175</v>
-      </c>
-      <c r="K32" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
+        <v>174</v>
+      </c>
+      <c r="K32">
+        <f>菜单!$E$26</f>
       </c>
       <c r="L32" t="s">
         <v>100</v>
@@ -6248,7 +6160,7 @@
         <v>81</v>
       </c>
       <c r="S32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T32" t="s">
         <v>81</v>
@@ -6260,12 +6172,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="5:24">
+    <row r="33">
       <c r="E33" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" t="s">
         <v>199</v>
-      </c>
-      <c r="F33" t="s">
-        <v>200</v>
       </c>
       <c r="G33" t="s">
         <v>127</v>
@@ -6274,11 +6186,10 @@
         <v>127</v>
       </c>
       <c r="J33" t="s">
-        <v>175</v>
-      </c>
-      <c r="K33" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
+        <v>174</v>
+      </c>
+      <c r="K33">
+        <f>菜单!$E$26</f>
       </c>
       <c r="L33" t="s">
         <v>100</v>
@@ -6296,7 +6207,7 @@
         <v>81</v>
       </c>
       <c r="S33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T33" t="s">
         <v>81</v>
@@ -6308,12 +6219,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="5:24">
+    <row r="34">
       <c r="E34" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" t="s">
         <v>202</v>
-      </c>
-      <c r="F34" t="s">
-        <v>203</v>
       </c>
       <c r="G34" t="s">
         <v>131</v>
@@ -6322,11 +6233,10 @@
         <v>131</v>
       </c>
       <c r="J34" t="s">
-        <v>175</v>
-      </c>
-      <c r="K34" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
+        <v>174</v>
+      </c>
+      <c r="K34">
+        <f>菜单!$E$26</f>
       </c>
       <c r="L34" t="s">
         <v>100</v>
@@ -6344,7 +6254,7 @@
         <v>81</v>
       </c>
       <c r="S34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T34" t="s">
         <v>81</v>
@@ -6356,28 +6266,27 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="5:24">
+    <row r="35">
       <c r="E35" t="s">
+        <v>204</v>
+      </c>
+      <c r="F35" t="s">
         <v>205</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>206</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>207</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>208</v>
       </c>
-      <c r="I35" t="s">
-        <v>209</v>
-      </c>
       <c r="J35" t="s">
-        <v>175</v>
-      </c>
-      <c r="K35" t="str">
-        <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
+        <v>174</v>
+      </c>
+      <c r="K35">
+        <f>菜单!$E$25</f>
       </c>
       <c r="L35" t="s">
         <v>92</v>
@@ -6389,19 +6298,19 @@
         <v>84</v>
       </c>
       <c r="O35" t="s">
+        <v>209</v>
+      </c>
+      <c r="P35" t="s">
         <v>210</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
+        <v>81</v>
+      </c>
+      <c r="R35" t="s">
+        <v>81</v>
+      </c>
+      <c r="S35" t="s">
         <v>211</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>81</v>
-      </c>
-      <c r="R35" t="s">
-        <v>81</v>
-      </c>
-      <c r="S35" t="s">
-        <v>212</v>
       </c>
       <c r="T35" t="s">
         <v>81</v>
@@ -6413,25 +6322,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="5:24">
+    <row r="36">
       <c r="E36" t="s">
+        <v>212</v>
+      </c>
+      <c r="F36" t="s">
         <v>213</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>214</v>
       </c>
-      <c r="G36" t="s">
-        <v>215</v>
-      </c>
       <c r="H36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J36" t="s">
-        <v>175</v>
-      </c>
-      <c r="K36" t="str">
-        <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
+        <v>174</v>
+      </c>
+      <c r="K36">
+        <f>菜单!$E$35</f>
       </c>
       <c r="L36" t="s">
         <v>100</v>
@@ -6443,7 +6351,7 @@
         <v>84</v>
       </c>
       <c r="O36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q36" t="s">
         <v>81</v>
@@ -6452,7 +6360,7 @@
         <v>81</v>
       </c>
       <c r="S36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T36" t="s">
         <v>81</v>
@@ -6464,25 +6372,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="5:24">
+    <row r="37">
       <c r="E37" t="s">
+        <v>216</v>
+      </c>
+      <c r="F37" t="s">
         <v>217</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>218</v>
       </c>
-      <c r="G37" t="s">
-        <v>219</v>
-      </c>
       <c r="H37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J37" t="s">
-        <v>175</v>
-      </c>
-      <c r="K37" t="str">
-        <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
+        <v>174</v>
+      </c>
+      <c r="K37">
+        <f>菜单!$E$35</f>
       </c>
       <c r="L37" t="s">
         <v>100</v>
@@ -6494,7 +6401,7 @@
         <v>84</v>
       </c>
       <c r="O37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q37" t="s">
         <v>81</v>
@@ -6503,7 +6410,7 @@
         <v>81</v>
       </c>
       <c r="S37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T37" t="s">
         <v>81</v>
@@ -6515,25 +6422,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="5:24">
+    <row r="38">
       <c r="E38" t="s">
+        <v>220</v>
+      </c>
+      <c r="F38" t="s">
         <v>221</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>222</v>
       </c>
-      <c r="G38" t="s">
-        <v>223</v>
-      </c>
       <c r="H38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J38" t="s">
-        <v>175</v>
-      </c>
-      <c r="K38" t="str">
-        <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
+        <v>174</v>
+      </c>
+      <c r="K38">
+        <f>菜单!$E$35</f>
       </c>
       <c r="L38" t="s">
         <v>100</v>
@@ -6545,7 +6451,7 @@
         <v>84</v>
       </c>
       <c r="O38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q38" t="s">
         <v>81</v>
@@ -6554,7 +6460,7 @@
         <v>81</v>
       </c>
       <c r="S38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T38" t="s">
         <v>81</v>
@@ -6566,25 +6472,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="5:24">
+    <row r="39">
       <c r="E39" t="s">
+        <v>224</v>
+      </c>
+      <c r="F39" t="s">
         <v>225</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>226</v>
       </c>
-      <c r="G39" t="s">
-        <v>227</v>
-      </c>
       <c r="H39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J39" t="s">
-        <v>175</v>
-      </c>
-      <c r="K39" t="str">
-        <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
+        <v>174</v>
+      </c>
+      <c r="K39">
+        <f>菜单!$E$35</f>
       </c>
       <c r="L39" t="s">
         <v>100</v>
@@ -6596,7 +6501,7 @@
         <v>84</v>
       </c>
       <c r="O39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q39" t="s">
         <v>81</v>
@@ -6605,7 +6510,7 @@
         <v>81</v>
       </c>
       <c r="S39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T39" t="s">
         <v>81</v>
@@ -6617,25 +6522,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="5:24">
+    <row r="40">
       <c r="E40" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" t="s">
         <v>229</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>230</v>
       </c>
-      <c r="G40" t="s">
-        <v>231</v>
-      </c>
       <c r="H40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J40" t="s">
-        <v>175</v>
-      </c>
-      <c r="K40" t="str">
-        <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
+        <v>174</v>
+      </c>
+      <c r="K40">
+        <f>菜单!$E$35</f>
       </c>
       <c r="L40" t="s">
         <v>100</v>
@@ -6653,7 +6557,7 @@
         <v>81</v>
       </c>
       <c r="S40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T40" t="s">
         <v>81</v>
@@ -6665,25 +6569,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="5:24">
+    <row r="41">
       <c r="E41" t="s">
+        <v>232</v>
+      </c>
+      <c r="F41" t="s">
         <v>233</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>234</v>
       </c>
-      <c r="G41" t="s">
-        <v>235</v>
-      </c>
       <c r="H41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J41" t="s">
-        <v>175</v>
-      </c>
-      <c r="K41" t="str">
-        <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
+        <v>174</v>
+      </c>
+      <c r="K41">
+        <f>菜单!$E$35</f>
       </c>
       <c r="L41" t="s">
         <v>100</v>
@@ -6695,16 +6598,16 @@
         <v>84</v>
       </c>
       <c r="O41" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>81</v>
+      </c>
+      <c r="R41" t="s">
+        <v>81</v>
+      </c>
+      <c r="S41" t="s">
         <v>236</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>81</v>
-      </c>
-      <c r="R41" t="s">
-        <v>81</v>
-      </c>
-      <c r="S41" t="s">
-        <v>237</v>
       </c>
       <c r="T41" t="s">
         <v>81</v>
@@ -6716,25 +6619,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="5:24">
+    <row r="42">
       <c r="E42" t="s">
+        <v>237</v>
+      </c>
+      <c r="F42" t="s">
         <v>238</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>239</v>
       </c>
-      <c r="G42" t="s">
-        <v>240</v>
-      </c>
       <c r="H42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J42" t="s">
-        <v>175</v>
-      </c>
-      <c r="K42" t="str">
-        <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
+        <v>174</v>
+      </c>
+      <c r="K42">
+        <f>菜单!$E$35</f>
       </c>
       <c r="L42" t="s">
         <v>100</v>
@@ -6752,7 +6654,7 @@
         <v>81</v>
       </c>
       <c r="S42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T42" t="s">
         <v>81</v>
@@ -6764,25 +6666,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="5:24">
+    <row r="43">
       <c r="E43" t="s">
+        <v>241</v>
+      </c>
+      <c r="F43" t="s">
         <v>242</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>243</v>
       </c>
-      <c r="G43" t="s">
-        <v>244</v>
-      </c>
       <c r="H43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J43" t="s">
-        <v>175</v>
-      </c>
-      <c r="K43" t="str">
-        <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
+        <v>174</v>
+      </c>
+      <c r="K43">
+        <f>菜单!$E$35</f>
       </c>
       <c r="L43" t="s">
         <v>100</v>
@@ -6800,7 +6701,7 @@
         <v>81</v>
       </c>
       <c r="S43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="T43" t="s">
         <v>81</v>
@@ -6812,28 +6713,27 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="5:24">
+    <row r="44">
       <c r="E44" t="s">
+        <v>245</v>
+      </c>
+      <c r="F44" t="s">
         <v>246</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>247</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>248</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>249</v>
       </c>
-      <c r="I44" t="s">
-        <v>250</v>
-      </c>
       <c r="J44" t="s">
-        <v>175</v>
-      </c>
-      <c r="K44" t="str">
-        <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
+        <v>174</v>
+      </c>
+      <c r="K44">
+        <f>菜单!$E$25</f>
       </c>
       <c r="L44" t="s">
         <v>92</v>
@@ -6845,19 +6745,19 @@
         <v>84</v>
       </c>
       <c r="O44" t="s">
+        <v>250</v>
+      </c>
+      <c r="P44" t="s">
         <v>251</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
+        <v>81</v>
+      </c>
+      <c r="R44" t="s">
+        <v>81</v>
+      </c>
+      <c r="S44" t="s">
         <v>252</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>81</v>
-      </c>
-      <c r="R44" t="s">
-        <v>81</v>
-      </c>
-      <c r="S44" t="s">
-        <v>253</v>
       </c>
       <c r="T44" t="s">
         <v>81</v>
@@ -6869,25 +6769,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="5:24">
+    <row r="45">
       <c r="E45" t="s">
+        <v>253</v>
+      </c>
+      <c r="F45" t="s">
         <v>254</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>255</v>
       </c>
-      <c r="G45" t="s">
-        <v>256</v>
-      </c>
       <c r="H45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J45" t="s">
-        <v>175</v>
-      </c>
-      <c r="K45" t="str">
-        <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
+        <v>174</v>
+      </c>
+      <c r="K45">
+        <f>菜单!$E$44</f>
       </c>
       <c r="L45" t="s">
         <v>100</v>
@@ -6899,7 +6798,7 @@
         <v>84</v>
       </c>
       <c r="O45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q45" t="s">
         <v>81</v>
@@ -6908,7 +6807,7 @@
         <v>81</v>
       </c>
       <c r="S45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T45" t="s">
         <v>81</v>
@@ -6920,25 +6819,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="5:24">
+    <row r="46">
       <c r="E46" t="s">
+        <v>257</v>
+      </c>
+      <c r="F46" t="s">
         <v>258</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>259</v>
       </c>
-      <c r="G46" t="s">
-        <v>260</v>
-      </c>
       <c r="H46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J46" t="s">
-        <v>175</v>
-      </c>
-      <c r="K46" t="str">
-        <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
+        <v>174</v>
+      </c>
+      <c r="K46">
+        <f>菜单!$E$44</f>
       </c>
       <c r="L46" t="s">
         <v>100</v>
@@ -6950,7 +6848,7 @@
         <v>84</v>
       </c>
       <c r="O46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q46" t="s">
         <v>81</v>
@@ -6959,7 +6857,7 @@
         <v>81</v>
       </c>
       <c r="S46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T46" t="s">
         <v>81</v>
@@ -6971,25 +6869,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="5:24">
+    <row r="47">
       <c r="E47" t="s">
+        <v>261</v>
+      </c>
+      <c r="F47" t="s">
         <v>262</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>263</v>
       </c>
-      <c r="G47" t="s">
-        <v>264</v>
-      </c>
       <c r="H47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J47" t="s">
-        <v>175</v>
-      </c>
-      <c r="K47" t="str">
-        <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
+        <v>174</v>
+      </c>
+      <c r="K47">
+        <f>菜单!$E$44</f>
       </c>
       <c r="L47" t="s">
         <v>100</v>
@@ -7001,7 +6898,7 @@
         <v>84</v>
       </c>
       <c r="O47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q47" t="s">
         <v>81</v>
@@ -7010,7 +6907,7 @@
         <v>81</v>
       </c>
       <c r="S47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="T47" t="s">
         <v>81</v>
@@ -7022,25 +6919,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="5:24">
+    <row r="48">
       <c r="E48" t="s">
+        <v>265</v>
+      </c>
+      <c r="F48" t="s">
         <v>266</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>267</v>
       </c>
-      <c r="G48" t="s">
-        <v>268</v>
-      </c>
       <c r="H48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J48" t="s">
-        <v>175</v>
-      </c>
-      <c r="K48" t="str">
-        <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
+        <v>174</v>
+      </c>
+      <c r="K48">
+        <f>菜单!$E$44</f>
       </c>
       <c r="L48" t="s">
         <v>100</v>
@@ -7052,7 +6948,7 @@
         <v>84</v>
       </c>
       <c r="O48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q48" t="s">
         <v>81</v>
@@ -7061,7 +6957,7 @@
         <v>81</v>
       </c>
       <c r="S48" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T48" t="s">
         <v>81</v>
@@ -7073,25 +6969,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="5:24">
+    <row r="49">
       <c r="E49" t="s">
+        <v>269</v>
+      </c>
+      <c r="F49" t="s">
         <v>270</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>271</v>
       </c>
-      <c r="G49" t="s">
-        <v>272</v>
-      </c>
       <c r="H49" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J49" t="s">
-        <v>175</v>
-      </c>
-      <c r="K49" t="str">
-        <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
+        <v>174</v>
+      </c>
+      <c r="K49">
+        <f>菜单!$E$44</f>
       </c>
       <c r="L49" t="s">
         <v>100</v>
@@ -7103,7 +6998,7 @@
         <v>84</v>
       </c>
       <c r="O49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q49" t="s">
         <v>81</v>
@@ -7112,7 +7007,7 @@
         <v>81</v>
       </c>
       <c r="S49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="T49" t="s">
         <v>81</v>
@@ -7124,25 +7019,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="5:24">
+    <row r="50">
       <c r="E50" t="s">
+        <v>273</v>
+      </c>
+      <c r="F50" t="s">
         <v>274</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>275</v>
       </c>
-      <c r="G50" t="s">
-        <v>276</v>
-      </c>
       <c r="H50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J50" t="s">
-        <v>175</v>
-      </c>
-      <c r="K50" t="str">
-        <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
+        <v>174</v>
+      </c>
+      <c r="K50">
+        <f>菜单!$E$44</f>
       </c>
       <c r="L50" t="s">
         <v>100</v>
@@ -7154,7 +7048,7 @@
         <v>84</v>
       </c>
       <c r="O50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q50" t="s">
         <v>81</v>
@@ -7163,7 +7057,7 @@
         <v>81</v>
       </c>
       <c r="S50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T50" t="s">
         <v>81</v>
@@ -7175,28 +7069,27 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="5:24">
+    <row r="51">
       <c r="E51" t="s">
+        <v>277</v>
+      </c>
+      <c r="F51" t="s">
         <v>278</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>279</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
+        <v>279</v>
+      </c>
+      <c r="I51" t="s">
         <v>280</v>
       </c>
-      <c r="H51" t="s">
-        <v>280</v>
-      </c>
-      <c r="I51" t="s">
-        <v>281</v>
-      </c>
       <c r="J51" t="s">
-        <v>175</v>
-      </c>
-      <c r="K51" t="str">
-        <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
+        <v>174</v>
+      </c>
+      <c r="K51">
+        <f>菜单!$E$44</f>
       </c>
       <c r="L51" t="s">
         <v>100</v>
@@ -7214,7 +7107,7 @@
         <v>81</v>
       </c>
       <c r="S51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T51" t="s">
         <v>81</v>
@@ -7226,12 +7119,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="5:24">
+    <row r="52">
       <c r="E52" t="s">
+        <v>282</v>
+      </c>
+      <c r="F52" t="s">
         <v>283</v>
-      </c>
-      <c r="F52" t="s">
-        <v>284</v>
       </c>
       <c r="G52" t="s">
         <v>135</v>
@@ -7243,17 +7136,16 @@
         <v>137</v>
       </c>
       <c r="J52" t="s">
-        <v>175</v>
-      </c>
-      <c r="K52" t="str">
-        <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
+        <v>174</v>
+      </c>
+      <c r="K52">
+        <f>菜单!$E$25</f>
       </c>
       <c r="L52" t="s">
         <v>92</v>
       </c>
       <c r="M52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N52" t="s">
         <v>84</v>
@@ -7271,7 +7163,7 @@
         <v>81</v>
       </c>
       <c r="S52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T52" t="s">
         <v>81</v>
@@ -7283,12 +7175,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="5:24">
+    <row r="53">
       <c r="E53" t="s">
+        <v>285</v>
+      </c>
+      <c r="F53" t="s">
         <v>286</v>
-      </c>
-      <c r="F53" t="s">
-        <v>287</v>
       </c>
       <c r="G53" t="s">
         <v>148</v>
@@ -7300,11 +7192,10 @@
         <v>149</v>
       </c>
       <c r="J53" t="s">
-        <v>175</v>
-      </c>
-      <c r="K53" t="str">
-        <f>菜单SAAS版!$E$52</f>
-        <v>iam_menu-52</v>
+        <v>174</v>
+      </c>
+      <c r="K53">
+        <f>菜单!$E$52</f>
       </c>
       <c r="L53" t="s">
         <v>100</v>
@@ -7322,7 +7213,7 @@
         <v>81</v>
       </c>
       <c r="S53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T53" t="s">
         <v>81</v>
@@ -7334,28 +7225,27 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="5:24">
+    <row r="54">
       <c r="E54" t="s">
+        <v>288</v>
+      </c>
+      <c r="F54" t="s">
         <v>289</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>290</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>291</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>292</v>
       </c>
-      <c r="I54" t="s">
-        <v>293</v>
-      </c>
       <c r="J54" t="s">
-        <v>175</v>
-      </c>
-      <c r="K54" t="str">
-        <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
+        <v>174</v>
+      </c>
+      <c r="K54">
+        <f>菜单!$E$25</f>
       </c>
       <c r="L54" t="s">
         <v>92</v>
@@ -7367,19 +7257,19 @@
         <v>84</v>
       </c>
       <c r="O54" t="s">
+        <v>293</v>
+      </c>
+      <c r="P54" t="s">
         <v>294</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
+        <v>81</v>
+      </c>
+      <c r="R54" t="s">
+        <v>81</v>
+      </c>
+      <c r="S54" t="s">
         <v>295</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>81</v>
-      </c>
-      <c r="R54" t="s">
-        <v>81</v>
-      </c>
-      <c r="S54" t="s">
-        <v>296</v>
       </c>
       <c r="T54" t="s">
         <v>81</v>
@@ -7391,25 +7281,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="5:24">
+    <row r="55">
       <c r="E55" t="s">
+        <v>296</v>
+      </c>
+      <c r="F55" t="s">
         <v>297</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>298</v>
       </c>
-      <c r="G55" t="s">
-        <v>299</v>
-      </c>
       <c r="H55" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J55" t="s">
-        <v>175</v>
-      </c>
-      <c r="K55" t="str">
-        <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-54</v>
+        <v>174</v>
+      </c>
+      <c r="K55">
+        <f>菜单!$E$54</f>
       </c>
       <c r="L55" t="s">
         <v>100</v>
@@ -7421,7 +7310,7 @@
         <v>84</v>
       </c>
       <c r="O55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q55" t="s">
         <v>81</v>
@@ -7430,7 +7319,7 @@
         <v>81</v>
       </c>
       <c r="S55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T55" t="s">
         <v>81</v>
@@ -7442,25 +7331,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="5:24">
+    <row r="56">
       <c r="E56" t="s">
+        <v>300</v>
+      </c>
+      <c r="F56" t="s">
         <v>301</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>302</v>
       </c>
-      <c r="G56" t="s">
-        <v>303</v>
-      </c>
       <c r="H56" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J56" t="s">
-        <v>175</v>
-      </c>
-      <c r="K56" t="str">
-        <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-54</v>
+        <v>174</v>
+      </c>
+      <c r="K56">
+        <f>菜单!$E$54</f>
       </c>
       <c r="L56" t="s">
         <v>100</v>
@@ -7472,7 +7360,7 @@
         <v>84</v>
       </c>
       <c r="O56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q56" t="s">
         <v>81</v>
@@ -7481,7 +7369,7 @@
         <v>81</v>
       </c>
       <c r="S56" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T56" t="s">
         <v>81</v>
@@ -7493,25 +7381,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="5:24">
+    <row r="57">
       <c r="E57" t="s">
+        <v>304</v>
+      </c>
+      <c r="F57" t="s">
         <v>305</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>306</v>
       </c>
-      <c r="G57" t="s">
-        <v>307</v>
-      </c>
       <c r="H57" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J57" t="s">
-        <v>175</v>
-      </c>
-      <c r="K57" t="str">
-        <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-54</v>
+        <v>174</v>
+      </c>
+      <c r="K57">
+        <f>菜单!$E$54</f>
       </c>
       <c r="L57" t="s">
         <v>100</v>
@@ -7523,7 +7410,7 @@
         <v>84</v>
       </c>
       <c r="O57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q57" t="s">
         <v>81</v>
@@ -7532,7 +7419,7 @@
         <v>81</v>
       </c>
       <c r="S57" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T57" t="s">
         <v>81</v>
@@ -7544,25 +7431,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="5:24">
+    <row r="58">
       <c r="E58" t="s">
+        <v>308</v>
+      </c>
+      <c r="F58" t="s">
         <v>309</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>310</v>
       </c>
-      <c r="G58" t="s">
-        <v>311</v>
-      </c>
       <c r="H58" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J58" t="s">
-        <v>175</v>
-      </c>
-      <c r="K58" t="str">
-        <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-54</v>
+        <v>174</v>
+      </c>
+      <c r="K58">
+        <f>菜单!$E$54</f>
       </c>
       <c r="L58" t="s">
         <v>100</v>
@@ -7580,7 +7466,7 @@
         <v>81</v>
       </c>
       <c r="S58" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T58" t="s">
         <v>81</v>
@@ -7592,28 +7478,27 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="5:24">
+    <row r="59">
       <c r="E59" t="s">
+        <v>312</v>
+      </c>
+      <c r="F59" t="s">
         <v>313</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>314</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
+        <v>314</v>
+      </c>
+      <c r="I59" t="s">
         <v>315</v>
       </c>
-      <c r="H59" t="s">
-        <v>315</v>
-      </c>
-      <c r="I59" t="s">
-        <v>316</v>
-      </c>
       <c r="J59" t="s">
-        <v>175</v>
-      </c>
-      <c r="K59" t="str">
-        <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-54</v>
+        <v>174</v>
+      </c>
+      <c r="K59">
+        <f>菜单!$E$54</f>
       </c>
       <c r="L59" t="s">
         <v>100</v>
@@ -7634,7 +7519,7 @@
         <v>81</v>
       </c>
       <c r="S59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="T59" t="s">
         <v>81</v>
@@ -7646,25 +7531,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="5:24">
+    <row r="60">
       <c r="E60" t="s">
+        <v>317</v>
+      </c>
+      <c r="F60" t="s">
         <v>318</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>319</v>
       </c>
-      <c r="G60" t="s">
-        <v>320</v>
-      </c>
       <c r="H60" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J60" t="s">
-        <v>175</v>
-      </c>
-      <c r="K60" t="str">
-        <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-54</v>
+        <v>174</v>
+      </c>
+      <c r="K60">
+        <f>菜单!$E$54</f>
       </c>
       <c r="L60" t="s">
         <v>100</v>
@@ -7682,7 +7566,7 @@
         <v>81</v>
       </c>
       <c r="S60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T60" t="s">
         <v>81</v>
@@ -7694,25 +7578,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="5:24">
+    <row r="61">
       <c r="E61" t="s">
+        <v>321</v>
+      </c>
+      <c r="F61" t="s">
         <v>322</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>323</v>
       </c>
-      <c r="G61" t="s">
-        <v>324</v>
-      </c>
       <c r="H61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J61" t="s">
-        <v>175</v>
-      </c>
-      <c r="K61" t="str">
-        <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-54</v>
+        <v>174</v>
+      </c>
+      <c r="K61">
+        <f>菜单!$E$54</f>
       </c>
       <c r="L61" t="s">
         <v>100</v>
@@ -7730,7 +7613,7 @@
         <v>81</v>
       </c>
       <c r="S61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T61" t="s">
         <v>81</v>
@@ -7742,49 +7625,48 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="5:24">
+    <row r="62">
       <c r="E62" t="s">
+        <v>325</v>
+      </c>
+      <c r="F62" t="s">
         <v>326</v>
-      </c>
-      <c r="F62" t="s">
-        <v>327</v>
       </c>
       <c r="G62" t="s">
         <v>153</v>
       </c>
       <c r="H62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I62" t="s">
         <v>155</v>
       </c>
       <c r="J62" t="s">
-        <v>175</v>
-      </c>
-      <c r="K62" t="str">
-        <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
+        <v>174</v>
+      </c>
+      <c r="K62">
+        <f>菜单!$E$25</f>
       </c>
       <c r="L62" t="s">
         <v>92</v>
       </c>
       <c r="M62" t="s">
+        <v>328</v>
+      </c>
+      <c r="N62" t="s">
+        <v>84</v>
+      </c>
+      <c r="P62" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>81</v>
+      </c>
+      <c r="R62" t="s">
+        <v>81</v>
+      </c>
+      <c r="S62" t="s">
         <v>329</v>
-      </c>
-      <c r="N62" t="s">
-        <v>84</v>
-      </c>
-      <c r="P62" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>81</v>
-      </c>
-      <c r="R62" t="s">
-        <v>81</v>
-      </c>
-      <c r="S62" t="s">
-        <v>330</v>
       </c>
       <c r="T62" t="s">
         <v>81</v>
@@ -7796,25 +7678,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="5:24">
+    <row r="63">
       <c r="E63" t="s">
+        <v>330</v>
+      </c>
+      <c r="F63" t="s">
         <v>331</v>
       </c>
-      <c r="F63" t="s">
-        <v>332</v>
-      </c>
       <c r="G63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J63" t="s">
-        <v>175</v>
-      </c>
-      <c r="K63" t="str">
-        <f>菜单SAAS版!$E$62</f>
-        <v>iam_menu-62</v>
+        <v>174</v>
+      </c>
+      <c r="K63">
+        <f>菜单!$E$62</f>
       </c>
       <c r="L63" t="s">
         <v>100</v>
@@ -7832,7 +7713,7 @@
         <v>81</v>
       </c>
       <c r="S63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T63" t="s">
         <v>81</v>
@@ -7844,25 +7725,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="5:24">
+    <row r="64">
       <c r="E64" t="s">
+        <v>333</v>
+      </c>
+      <c r="F64" t="s">
         <v>334</v>
       </c>
-      <c r="F64" t="s">
-        <v>335</v>
-      </c>
       <c r="G64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J64" t="s">
-        <v>175</v>
-      </c>
-      <c r="K64" t="str">
-        <f>菜单SAAS版!$E$62</f>
-        <v>iam_menu-62</v>
+        <v>174</v>
+      </c>
+      <c r="K64">
+        <f>菜单!$E$62</f>
       </c>
       <c r="L64" t="s">
         <v>100</v>
@@ -7880,7 +7760,7 @@
         <v>81</v>
       </c>
       <c r="S64" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="T64" t="s">
         <v>81</v>
@@ -7892,25 +7772,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="5:24">
+    <row r="65">
       <c r="E65" t="s">
+        <v>336</v>
+      </c>
+      <c r="F65" t="s">
         <v>337</v>
       </c>
-      <c r="F65" t="s">
-        <v>338</v>
-      </c>
       <c r="G65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J65" t="s">
-        <v>175</v>
-      </c>
-      <c r="K65" t="str">
-        <f>菜单SAAS版!$E$62</f>
-        <v>iam_menu-62</v>
+        <v>174</v>
+      </c>
+      <c r="K65">
+        <f>菜单!$E$62</f>
       </c>
       <c r="L65" t="s">
         <v>100</v>
@@ -7928,13 +7807,13 @@
         <v>81</v>
       </c>
       <c r="S65" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="T65" t="s">
         <v>81</v>
       </c>
       <c r="U65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V65" t="s">
         <v>86</v>
@@ -7944,45 +7823,44 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="34" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="39">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" t="s" s="40">
         <v>45</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" t="s" s="41">
         <v>9</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" t="s" s="42">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="E4" s="38" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="43">
         <v>47</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" t="s" s="44">
         <v>48</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" t="s" s="45">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -7990,697 +7868,805 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" t="s" s="66">
         <v>340</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="E7" t="s" s="67">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s" s="68">
         <v>341</v>
       </c>
-      <c r="E7" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="63" t="s">
+      <c r="G7" t="s" s="69">
         <v>342</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="H7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8">
       <c r="E8" t="s">
         <v>344</v>
       </c>
-      <c r="F8" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
+      <c r="F8">
+        <f>菜单!$E$13</f>
       </c>
       <c r="G8" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="E9" t="s">
         <v>346</v>
       </c>
-      <c r="F9" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
+      <c r="F9">
+        <f>菜单!$E$15</f>
       </c>
       <c r="G9" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="E10" t="s">
         <v>348</v>
       </c>
-      <c r="F10" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
+      <c r="F10">
+        <f>菜单!$E$19</f>
       </c>
       <c r="G10" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="E11" t="s">
         <v>350</v>
       </c>
-      <c r="F11" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
+      <c r="F11">
+        <f>菜单!$E$20</f>
       </c>
       <c r="G11" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="E12" t="s">
         <v>351</v>
       </c>
-      <c r="F12" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
+      <c r="F12">
+        <f>菜单!$E$21</f>
       </c>
       <c r="G12" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="E13" t="s">
         <v>353</v>
       </c>
-      <c r="F13" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
+      <c r="F13">
+        <f>菜单!$E$21</f>
       </c>
       <c r="G13" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="E14" t="s">
         <v>355</v>
       </c>
-      <c r="F14" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
+      <c r="F14">
+        <f>菜单!$E$21</f>
       </c>
       <c r="G14" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="E15" t="s">
         <v>357</v>
       </c>
-      <c r="F15" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
+      <c r="F15">
+        <f>菜单!$E$21</f>
       </c>
       <c r="G15" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="E16" t="s">
         <v>359</v>
       </c>
-      <c r="F16" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
+      <c r="F16">
+        <f>菜单!$E$21</f>
       </c>
       <c r="G16" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="17" spans="5:7">
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="E17" t="s">
         <v>361</v>
       </c>
-      <c r="F17" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
+      <c r="F17">
+        <f>菜单!$E$21</f>
       </c>
       <c r="G17" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="18" spans="5:7">
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="E18" t="s">
         <v>363</v>
       </c>
-      <c r="F18" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
+      <c r="F18">
+        <f>菜单!$E$21</f>
       </c>
       <c r="G18" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="19" spans="5:7">
+      <c r="H18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="E19" t="s">
         <v>365</v>
       </c>
-      <c r="F19" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
+      <c r="F19">
+        <f>菜单!$E$21</f>
       </c>
       <c r="G19" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="20" spans="5:7">
+      <c r="H19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="E20" t="s">
         <v>367</v>
       </c>
-      <c r="F20" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
+      <c r="F20">
+        <f>菜单!$E$21</f>
       </c>
       <c r="G20" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="21" spans="5:7">
+      <c r="H20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="E21" t="s">
         <v>369</v>
       </c>
-      <c r="F21" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
+      <c r="F21">
+        <f>菜单!$E$21</f>
       </c>
       <c r="G21" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="22" spans="5:7">
+      <c r="H21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="E22" t="s">
         <v>371</v>
       </c>
-      <c r="F22" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
+      <c r="F22">
+        <f>菜单!$E$24</f>
       </c>
       <c r="G22" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="23" spans="5:7">
+      <c r="H22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="E23" t="s">
         <v>373</v>
       </c>
-      <c r="F23" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
+      <c r="F23">
+        <f>菜单!$E$24</f>
       </c>
       <c r="G23" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="24" spans="5:7">
+      <c r="H23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="E24" t="s">
         <v>375</v>
       </c>
-      <c r="F24" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
+      <c r="F24">
+        <f>菜单!$E$24</f>
       </c>
       <c r="G24" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="25" spans="5:7">
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="E25" t="s">
         <v>377</v>
       </c>
-      <c r="F25" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
+      <c r="F25">
+        <f>菜单!$E$24</f>
       </c>
       <c r="G25" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="26" spans="5:7">
+      <c r="H25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="E26" t="s">
         <v>379</v>
       </c>
-      <c r="F26" t="str">
-        <f>菜单SAAS版!$E$32</f>
-        <v>iam_menu-32</v>
+      <c r="F26">
+        <f>菜单!$E$32</f>
       </c>
       <c r="G26" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="27" spans="5:7">
+      <c r="H26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="E27" t="s">
         <v>381</v>
       </c>
-      <c r="F27" t="str">
-        <f>菜单SAAS版!$E$32</f>
-        <v>iam_menu-32</v>
+      <c r="F27">
+        <f>菜单!$E$32</f>
       </c>
       <c r="G27" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="28" spans="5:7">
+      <c r="H27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="E28" t="s">
         <v>383</v>
       </c>
-      <c r="F28" t="str">
-        <f>菜单SAAS版!$E$32</f>
-        <v>iam_menu-32</v>
+      <c r="F28">
+        <f>菜单!$E$32</f>
       </c>
       <c r="G28" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="29" spans="5:7">
+      <c r="H28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="E29" t="s">
         <v>385</v>
       </c>
-      <c r="F29" t="str">
-        <f>菜单SAAS版!$E$40</f>
-        <v>iam_menu-40</v>
+      <c r="F29">
+        <f>菜单!$E$40</f>
       </c>
       <c r="G29" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="30" spans="5:7">
+      <c r="H29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="E30" t="s">
         <v>387</v>
       </c>
-      <c r="F30" t="str">
-        <f>菜单SAAS版!$E$40</f>
-        <v>iam_menu-40</v>
+      <c r="F30">
+        <f>菜单!$E$40</f>
       </c>
       <c r="G30" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="31" spans="5:7">
+      <c r="H30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="E31" t="s">
         <v>389</v>
       </c>
-      <c r="F31" t="str">
-        <f>菜单SAAS版!$E$40</f>
-        <v>iam_menu-40</v>
+      <c r="F31">
+        <f>菜单!$E$40</f>
       </c>
       <c r="G31" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="32" spans="5:7">
+      <c r="H31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="E32" t="s">
         <v>391</v>
       </c>
-      <c r="F32" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
+      <c r="F32">
+        <f>菜单!$E$41</f>
       </c>
       <c r="G32" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="33" spans="5:7">
+      <c r="H32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="E33" t="s">
         <v>392</v>
       </c>
-      <c r="F33" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
+      <c r="F33">
+        <f>菜单!$E$41</f>
       </c>
       <c r="G33" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="34" spans="5:7">
+      <c r="H33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="E34" t="s">
         <v>393</v>
       </c>
-      <c r="F34" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
+      <c r="F34">
+        <f>菜单!$E$41</f>
       </c>
       <c r="G34" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="35" spans="5:7">
+      <c r="H34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="E35" t="s">
         <v>395</v>
       </c>
-      <c r="F35" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
+      <c r="F35">
+        <f>菜单!$E$41</f>
       </c>
       <c r="G35" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="36" spans="5:7">
+      <c r="H35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="E36" t="s">
         <v>396</v>
       </c>
-      <c r="F36" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
+      <c r="F36">
+        <f>菜单!$E$41</f>
       </c>
       <c r="G36" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="37" spans="5:7">
+      <c r="H36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="E37" t="s">
         <v>397</v>
       </c>
-      <c r="F37" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
+      <c r="F37">
+        <f>菜单!$E$41</f>
       </c>
       <c r="G37" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="38" spans="5:7">
+      <c r="H37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="E38" t="s">
         <v>399</v>
       </c>
-      <c r="F38" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
+      <c r="F38">
+        <f>菜单!$E$41</f>
       </c>
       <c r="G38" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="39" spans="5:7">
+      <c r="H38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="E39" t="s">
         <v>401</v>
       </c>
-      <c r="F39" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
+      <c r="F39">
+        <f>菜单!$E$41</f>
       </c>
       <c r="G39" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="40" spans="5:7">
+      <c r="H39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="E40" t="s">
         <v>402</v>
       </c>
-      <c r="F40" t="str">
-        <f>菜单SAAS版!$E$42</f>
-        <v>iam_menu-42</v>
+      <c r="F40">
+        <f>菜单!$E$42</f>
       </c>
       <c r="G40" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="41" spans="5:7">
+      <c r="H40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="E41" t="s">
         <v>403</v>
       </c>
-      <c r="F41" t="str">
-        <f>菜单SAAS版!$E$43</f>
-        <v>iam_menu-43</v>
+      <c r="F41">
+        <f>菜单!$E$43</f>
       </c>
       <c r="G41" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="42" spans="5:7">
+      <c r="H41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="E42" t="s">
         <v>404</v>
       </c>
-      <c r="F42" t="str">
-        <f>菜单SAAS版!$E$43</f>
-        <v>iam_menu-43</v>
+      <c r="F42">
+        <f>菜单!$E$43</f>
       </c>
       <c r="G42" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="43" spans="5:7">
+      <c r="H42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="E43" t="s">
         <v>405</v>
       </c>
-      <c r="F43" t="str">
-        <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
+      <c r="F43">
+        <f>菜单!$E$51</f>
       </c>
       <c r="G43" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="44" spans="5:7">
+      <c r="H43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="E44" t="s">
         <v>407</v>
       </c>
-      <c r="F44" t="str">
-        <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
+      <c r="F44">
+        <f>菜单!$E$51</f>
       </c>
       <c r="G44" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="45" spans="5:7">
+      <c r="H44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="E45" t="s">
         <v>409</v>
       </c>
-      <c r="F45" t="str">
-        <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
+      <c r="F45">
+        <f>菜单!$E$51</f>
       </c>
       <c r="G45" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="46" spans="5:7">
+      <c r="H45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="E46" t="s">
         <v>410</v>
       </c>
-      <c r="F46" t="str">
-        <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
+      <c r="F46">
+        <f>菜单!$E$51</f>
       </c>
       <c r="G46" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="47" spans="5:7">
+      <c r="H46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="E47" t="s">
         <v>412</v>
       </c>
-      <c r="F47" t="str">
-        <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
+      <c r="F47">
+        <f>菜单!$E$51</f>
       </c>
       <c r="G47" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="48" spans="5:7">
+      <c r="H47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="E48" t="s">
         <v>414</v>
       </c>
-      <c r="F48" t="str">
-        <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
+      <c r="F48">
+        <f>菜单!$E$51</f>
       </c>
       <c r="G48" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="49" spans="5:7">
+      <c r="H48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="E49" t="s">
         <v>416</v>
       </c>
-      <c r="F49" t="str">
-        <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
+      <c r="F49">
+        <f>菜单!$E$51</f>
       </c>
       <c r="G49" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="50" spans="5:7">
+      <c r="H49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="E50" t="s">
         <v>418</v>
       </c>
-      <c r="F50" t="str">
-        <f>菜单SAAS版!$E$53</f>
-        <v>iam_menu-53</v>
+      <c r="F50">
+        <f>菜单!$E$53</f>
       </c>
       <c r="G50" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="51" spans="5:7">
+      <c r="H50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="E51" t="s">
         <v>419</v>
       </c>
-      <c r="F51" t="str">
-        <f>菜单SAAS版!$E$53</f>
-        <v>iam_menu-53</v>
+      <c r="F51">
+        <f>菜单!$E$53</f>
       </c>
       <c r="G51" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="52" spans="5:7">
+      <c r="H51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="E52" t="s">
         <v>421</v>
       </c>
-      <c r="F52" t="str">
-        <f>菜单SAAS版!$E$53</f>
-        <v>iam_menu-53</v>
+      <c r="F52">
+        <f>菜单!$E$53</f>
       </c>
       <c r="G52" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="53" spans="5:7">
+      <c r="H52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="E53" t="s">
         <v>423</v>
       </c>
-      <c r="F53" t="str">
-        <f>菜单SAAS版!$E$53</f>
-        <v>iam_menu-53</v>
+      <c r="F53">
+        <f>菜单!$E$53</f>
       </c>
       <c r="G53" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="54" spans="5:7">
+      <c r="H53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="E54" t="s">
         <v>425</v>
       </c>
-      <c r="F54" t="str">
-        <f>菜单SAAS版!$E$53</f>
-        <v>iam_menu-53</v>
+      <c r="F54">
+        <f>菜单!$E$53</f>
       </c>
       <c r="G54" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="55" spans="5:7">
+      <c r="H54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="E55" t="s">
         <v>427</v>
       </c>
-      <c r="F55" t="str">
-        <f>菜单SAAS版!$E$59</f>
-        <v>iam_menu-59</v>
+      <c r="F55">
+        <f>菜单!$E$59</f>
       </c>
       <c r="G55" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="56" spans="5:7">
+      <c r="H55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="E56" t="s">
         <v>428</v>
       </c>
-      <c r="F56" t="str">
-        <f>菜单SAAS版!$E$65</f>
-        <v>iam_menu-65</v>
+      <c r="F56">
+        <f>菜单!$E$65</f>
       </c>
       <c r="G56" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="57" spans="5:7">
+      <c r="H56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="E57" t="s">
         <v>429</v>
       </c>
-      <c r="F57" t="str">
-        <f>菜单SAAS版!$E$65</f>
-        <v>iam_menu-65</v>
+      <c r="F57">
+        <f>菜单!$E$65</f>
       </c>
       <c r="G57" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="58" spans="5:7">
+      <c r="H57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="E58" t="s">
         <v>431</v>
       </c>
-      <c r="F58" t="str">
-        <f>菜单SAAS版!$E$65</f>
-        <v>iam_menu-65</v>
+      <c r="F58">
+        <f>菜单!$E$65</f>
       </c>
       <c r="G58" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="59" spans="5:7">
+      <c r="H58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="E59" t="s">
         <v>433</v>
       </c>
-      <c r="F59" t="str">
-        <f>菜单SAAS版!$E$65</f>
-        <v>iam_menu-65</v>
+      <c r="F59">
+        <f>菜单!$E$65</f>
       </c>
       <c r="G59" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="60" spans="5:7">
+      <c r="H59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="E60" t="s">
         <v>435</v>
       </c>
-      <c r="F60" t="str">
-        <f>菜单SAAS版!$E$65</f>
-        <v>iam_menu-65</v>
+      <c r="F60">
+        <f>菜单!$E$65</f>
       </c>
       <c r="G60" t="s">
         <v>436</v>
       </c>
+      <c r="H60" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Y72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="41" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="46">
         <v>44</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" t="s" s="47">
         <v>45</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" t="s" s="48">
         <v>9</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" t="s" s="49">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="E4" s="45" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="50">
         <v>47</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" t="s" s="51">
         <v>48</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" t="s" s="52">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -8690,10 +8676,10 @@
       <c r="C7" t="s">
         <v>437</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" t="s" s="70">
         <v>438</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" t="s" s="71">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -8702,7 +8688,7 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" t="s" s="72">
         <v>55</v>
       </c>
       <c r="I7" t="s">
@@ -8711,16 +8697,16 @@
       <c r="J7" t="s">
         <v>440</v>
       </c>
-      <c r="K7" s="68" t="s">
+      <c r="K7" t="s" s="73">
         <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>441</v>
       </c>
-      <c r="M7" s="69" t="s">
+      <c r="M7" t="s" s="74">
         <v>442</v>
       </c>
-      <c r="N7" s="70" t="s">
+      <c r="N7" t="s" s="75">
         <v>443</v>
       </c>
       <c r="O7" t="s">
@@ -8747,7 +8733,7 @@
       <c r="V7" t="s">
         <v>450</v>
       </c>
-      <c r="W7" s="71" t="s">
+      <c r="W7" t="s" s="76">
         <v>451</v>
       </c>
       <c r="X7" t="s">
@@ -8757,7 +8743,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8">
       <c r="E8" t="s">
         <v>454</v>
       </c>
@@ -8774,7 +8760,7 @@
         <v>458</v>
       </c>
       <c r="J8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K8" t="s">
         <v>81</v>
@@ -8816,7 +8802,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9">
       <c r="E9" t="s">
         <v>459</v>
       </c>
@@ -8875,7 +8861,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10">
       <c r="E10" t="s">
         <v>464</v>
       </c>
@@ -8897,9 +8883,8 @@
       <c r="L10" t="s">
         <v>81</v>
       </c>
-      <c r="M10" t="str">
+      <c r="M10">
         <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
         <v>80</v>
@@ -8926,7 +8911,7 @@
         <v>468</v>
       </c>
       <c r="V10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
@@ -8935,10 +8920,10 @@
         <v>460</v>
       </c>
       <c r="Y10" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -8946,1392 +8931,1452 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
+        <v>470</v>
+      </c>
+      <c r="D12" t="s" s="77">
         <v>471</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="E12" t="s" s="78">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s" s="79">
         <v>472</v>
       </c>
-      <c r="E12" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="74" t="s">
+      <c r="G12" t="s" s="80">
         <v>473</v>
       </c>
-      <c r="G12" s="75" t="s">
+      <c r="H12" t="s">
         <v>474</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>475</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s" s="81">
         <v>476</v>
       </c>
-      <c r="J12" s="76" t="s">
+      <c r="K12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="E13" t="s">
+      <c r="F13">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G13">
+        <f>菜单!$E$10</f>
+      </c>
+      <c r="H13" t="s">
         <v>478</v>
       </c>
-      <c r="F13" t="str">
+      <c r="I13" t="s">
+        <v>479</v>
+      </c>
+      <c r="J13" t="s">
+        <v>480</v>
+      </c>
+      <c r="K13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>481</v>
+      </c>
+      <c r="F14">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G14">
+        <f>菜单!$E$10</f>
+      </c>
+      <c r="H14" t="s">
+        <v>478</v>
+      </c>
+      <c r="I14" t="s">
+        <v>479</v>
+      </c>
+      <c r="J14" t="s">
+        <v>480</v>
+      </c>
+      <c r="K14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>482</v>
+      </c>
+      <c r="F15">
         <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G13" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
-      </c>
-      <c r="H13" t="s">
+      </c>
+      <c r="G15">
+        <f>菜单!$E$11</f>
+      </c>
+      <c r="H15" t="s">
+        <v>478</v>
+      </c>
+      <c r="I15" t="s">
         <v>479</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J15" t="s">
         <v>480</v>
       </c>
-      <c r="J13" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="E14" t="s">
-        <v>482</v>
-      </c>
-      <c r="F14" t="str">
+      <c r="K15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>483</v>
+      </c>
+      <c r="F16">
         <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G14" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
-      </c>
-      <c r="H14" t="s">
+      </c>
+      <c r="G16">
+        <f>菜单!$E$11</f>
+      </c>
+      <c r="H16" t="s">
+        <v>478</v>
+      </c>
+      <c r="I16" t="s">
         <v>479</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J16" t="s">
         <v>480</v>
       </c>
-      <c r="J14" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="E15" t="s">
-        <v>483</v>
-      </c>
-      <c r="F15" t="str">
+      <c r="K16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>484</v>
+      </c>
+      <c r="F17">
         <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G15" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H15" t="s">
+      </c>
+      <c r="G17">
+        <f>菜单!$E$12</f>
+      </c>
+      <c r="H17" t="s">
+        <v>478</v>
+      </c>
+      <c r="I17" t="s">
         <v>479</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J17" t="s">
         <v>480</v>
       </c>
-      <c r="J15" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="E16" t="s">
-        <v>484</v>
-      </c>
-      <c r="F16" t="str">
+      <c r="K17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>485</v>
+      </c>
+      <c r="F18">
         <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G16" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H16" t="s">
+      </c>
+      <c r="G18">
+        <f>菜单!$E$12</f>
+      </c>
+      <c r="H18" t="s">
+        <v>478</v>
+      </c>
+      <c r="I18" t="s">
         <v>479</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J18" t="s">
         <v>480</v>
       </c>
-      <c r="J16" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10">
-      <c r="E17" t="s">
-        <v>485</v>
-      </c>
-      <c r="F17" t="str">
+      <c r="K18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>486</v>
+      </c>
+      <c r="F19">
         <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G17" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H17" t="s">
+      </c>
+      <c r="G19">
+        <f>菜单!$E$13</f>
+      </c>
+      <c r="H19" t="s">
+        <v>478</v>
+      </c>
+      <c r="I19" t="s">
         <v>479</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J19" t="s">
         <v>480</v>
       </c>
-      <c r="J17" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10">
-      <c r="E18" t="s">
-        <v>486</v>
-      </c>
-      <c r="F18" t="str">
+      <c r="K19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>487</v>
+      </c>
+      <c r="F20">
         <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G18" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H18" t="s">
+      </c>
+      <c r="G20">
+        <f>菜单!$E$13</f>
+      </c>
+      <c r="H20" t="s">
+        <v>478</v>
+      </c>
+      <c r="I20" t="s">
         <v>479</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J20" t="s">
         <v>480</v>
       </c>
-      <c r="J18" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10">
-      <c r="E19" t="s">
-        <v>487</v>
-      </c>
-      <c r="F19" t="str">
+      <c r="K20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>488</v>
+      </c>
+      <c r="F21">
         <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G19" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H19" t="s">
+      </c>
+      <c r="G21">
+        <f>菜单!$E$14</f>
+      </c>
+      <c r="H21" t="s">
+        <v>478</v>
+      </c>
+      <c r="I21" t="s">
         <v>479</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J21" t="s">
         <v>480</v>
       </c>
-      <c r="J19" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10">
-      <c r="E20" t="s">
-        <v>488</v>
-      </c>
-      <c r="F20" t="str">
+      <c r="K21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>489</v>
+      </c>
+      <c r="F22">
         <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G20" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H20" t="s">
+      </c>
+      <c r="G22">
+        <f>菜单!$E$14</f>
+      </c>
+      <c r="H22" t="s">
+        <v>478</v>
+      </c>
+      <c r="I22" t="s">
         <v>479</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J22" t="s">
         <v>480</v>
       </c>
-      <c r="J20" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10">
-      <c r="E21" t="s">
-        <v>489</v>
-      </c>
-      <c r="F21" t="str">
+      <c r="K22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>490</v>
+      </c>
+      <c r="F23">
         <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G21" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="H21" t="s">
+      </c>
+      <c r="G23">
+        <f>菜单!$E$15</f>
+      </c>
+      <c r="H23" t="s">
+        <v>478</v>
+      </c>
+      <c r="I23" t="s">
         <v>479</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J23" t="s">
         <v>480</v>
       </c>
-      <c r="J21" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10">
-      <c r="E22" t="s">
-        <v>490</v>
-      </c>
-      <c r="F22" t="str">
+      <c r="K23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>491</v>
+      </c>
+      <c r="F24">
         <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G22" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="H22" t="s">
+      </c>
+      <c r="G24">
+        <f>菜单!$E$15</f>
+      </c>
+      <c r="H24" t="s">
+        <v>478</v>
+      </c>
+      <c r="I24" t="s">
         <v>479</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J24" t="s">
         <v>480</v>
       </c>
-      <c r="J22" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10">
-      <c r="E23" t="s">
-        <v>491</v>
-      </c>
-      <c r="F23" t="str">
+      <c r="K24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>492</v>
+      </c>
+      <c r="F25">
         <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G23" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H23" t="s">
+      </c>
+      <c r="G25">
+        <f>菜单!$E$16</f>
+      </c>
+      <c r="H25" t="s">
+        <v>478</v>
+      </c>
+      <c r="I25" t="s">
         <v>479</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J25" t="s">
         <v>480</v>
       </c>
-      <c r="J23" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10">
-      <c r="E24" t="s">
-        <v>492</v>
-      </c>
-      <c r="F24" t="str">
+      <c r="K25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>493</v>
+      </c>
+      <c r="F26">
         <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G24" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H24" t="s">
+      </c>
+      <c r="G26">
+        <f>菜单!$E$16</f>
+      </c>
+      <c r="H26" t="s">
+        <v>478</v>
+      </c>
+      <c r="I26" t="s">
         <v>479</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J26" t="s">
         <v>480</v>
       </c>
-      <c r="J24" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10">
-      <c r="E25" t="s">
-        <v>493</v>
-      </c>
-      <c r="F25" t="str">
+      <c r="K26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>494</v>
+      </c>
+      <c r="F27">
         <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G25" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H25" t="s">
+      </c>
+      <c r="G27">
+        <f>菜单!$E$17</f>
+      </c>
+      <c r="H27" t="s">
+        <v>478</v>
+      </c>
+      <c r="I27" t="s">
         <v>479</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J27" t="s">
         <v>480</v>
       </c>
-      <c r="J25" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="26" spans="5:10">
-      <c r="E26" t="s">
-        <v>494</v>
-      </c>
-      <c r="F26" t="str">
+      <c r="K27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>495</v>
+      </c>
+      <c r="F28">
         <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G26" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H26" t="s">
+      </c>
+      <c r="G28">
+        <f>菜单!$E$17</f>
+      </c>
+      <c r="H28" t="s">
+        <v>478</v>
+      </c>
+      <c r="I28" t="s">
         <v>479</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J28" t="s">
         <v>480</v>
       </c>
-      <c r="J26" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="27" spans="5:10">
-      <c r="E27" t="s">
-        <v>495</v>
-      </c>
-      <c r="F27" t="str">
+      <c r="K28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>496</v>
+      </c>
+      <c r="F29">
         <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G27" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H27" t="s">
+      </c>
+      <c r="G29">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="H29" t="s">
+        <v>478</v>
+      </c>
+      <c r="I29" t="s">
         <v>479</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J29" t="s">
         <v>480</v>
       </c>
-      <c r="J27" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="28" spans="5:10">
-      <c r="E28" t="s">
-        <v>496</v>
-      </c>
-      <c r="F28" t="str">
+      <c r="K29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>497</v>
+      </c>
+      <c r="F30">
         <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G28" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H28" t="s">
+      </c>
+      <c r="G30">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="H30" t="s">
+        <v>478</v>
+      </c>
+      <c r="I30" t="s">
         <v>479</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J30" t="s">
         <v>480</v>
       </c>
-      <c r="J28" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="29" spans="5:10">
-      <c r="E29" t="s">
-        <v>497</v>
-      </c>
-      <c r="F29" t="str">
+      <c r="K30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>498</v>
+      </c>
+      <c r="F31">
         <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G29" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="H29" t="s">
+      </c>
+      <c r="G31">
+        <f>菜单!$E$20</f>
+      </c>
+      <c r="H31" t="s">
+        <v>478</v>
+      </c>
+      <c r="I31" t="s">
         <v>479</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J31" t="s">
         <v>480</v>
       </c>
-      <c r="J29" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="30" spans="5:10">
-      <c r="E30" t="s">
-        <v>498</v>
-      </c>
-      <c r="F30" t="str">
+      <c r="K31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>499</v>
+      </c>
+      <c r="F32">
         <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G30" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="H30" t="s">
+      </c>
+      <c r="G32">
+        <f>菜单!$E$20</f>
+      </c>
+      <c r="H32" t="s">
+        <v>478</v>
+      </c>
+      <c r="I32" t="s">
         <v>479</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J32" t="s">
         <v>480</v>
       </c>
-      <c r="J30" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="31" spans="5:10">
-      <c r="E31" t="s">
-        <v>499</v>
-      </c>
-      <c r="F31" t="str">
+      <c r="K32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>500</v>
+      </c>
+      <c r="F33">
         <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G31" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
-      </c>
-      <c r="H31" t="s">
+      </c>
+      <c r="G33">
+        <f>菜单!$E$22</f>
+      </c>
+      <c r="H33" t="s">
+        <v>478</v>
+      </c>
+      <c r="I33" t="s">
         <v>479</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J33" t="s">
         <v>480</v>
       </c>
-      <c r="J31" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="32" spans="5:10">
-      <c r="E32" t="s">
-        <v>500</v>
-      </c>
-      <c r="F32" t="str">
+      <c r="K33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>501</v>
+      </c>
+      <c r="F34">
         <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G32" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
-      </c>
-      <c r="H32" t="s">
+      </c>
+      <c r="G34">
+        <f>菜单!$E$22</f>
+      </c>
+      <c r="H34" t="s">
+        <v>478</v>
+      </c>
+      <c r="I34" t="s">
         <v>479</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J34" t="s">
         <v>480</v>
       </c>
-      <c r="J32" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="33" spans="5:10">
-      <c r="E33" t="s">
-        <v>501</v>
-      </c>
-      <c r="F33" t="str">
+      <c r="K34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>502</v>
+      </c>
+      <c r="F35">
         <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G33" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="H33" t="s">
+      </c>
+      <c r="G35">
+        <f>菜单!$E$23</f>
+      </c>
+      <c r="H35" t="s">
+        <v>478</v>
+      </c>
+      <c r="I35" t="s">
         <v>479</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J35" t="s">
         <v>480</v>
       </c>
-      <c r="J33" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="34" spans="5:10">
-      <c r="E34" t="s">
-        <v>502</v>
-      </c>
-      <c r="F34" t="str">
+      <c r="K35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>503</v>
+      </c>
+      <c r="F36">
         <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G34" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="H34" t="s">
+      </c>
+      <c r="G36">
+        <f>菜单!$E$23</f>
+      </c>
+      <c r="H36" t="s">
+        <v>478</v>
+      </c>
+      <c r="I36" t="s">
         <v>479</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J36" t="s">
         <v>480</v>
       </c>
-      <c r="J34" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="35" spans="5:10">
-      <c r="E35" t="s">
-        <v>503</v>
-      </c>
-      <c r="F35" t="str">
+      <c r="K36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>504</v>
+      </c>
+      <c r="F37">
         <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G35" t="str">
-        <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
-      </c>
-      <c r="H35" t="s">
+      </c>
+      <c r="G37">
+        <f>菜单!$E$24</f>
+      </c>
+      <c r="H37" t="s">
+        <v>478</v>
+      </c>
+      <c r="I37" t="s">
         <v>479</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J37" t="s">
         <v>480</v>
       </c>
-      <c r="J35" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="36" spans="5:10">
-      <c r="E36" t="s">
-        <v>504</v>
-      </c>
-      <c r="F36" t="str">
+      <c r="K37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>505</v>
+      </c>
+      <c r="F38">
         <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G36" t="str">
-        <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
-      </c>
-      <c r="H36" t="s">
+      </c>
+      <c r="G38">
+        <f>菜单!$E$24</f>
+      </c>
+      <c r="H38" t="s">
+        <v>478</v>
+      </c>
+      <c r="I38" t="s">
         <v>479</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J38" t="s">
         <v>480</v>
       </c>
-      <c r="J36" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="37" spans="5:10">
-      <c r="E37" t="s">
-        <v>505</v>
-      </c>
-      <c r="F37" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G37" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="K38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>506</v>
+      </c>
+      <c r="F39">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G39">
+        <f>菜单!$E$27</f>
+      </c>
+      <c r="H39" t="s">
+        <v>478</v>
+      </c>
+      <c r="I39" t="s">
         <v>479</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J39" t="s">
         <v>480</v>
       </c>
-      <c r="J37" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="38" spans="5:10">
-      <c r="E38" t="s">
-        <v>506</v>
-      </c>
-      <c r="F38" t="str">
-        <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G38" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="K39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>507</v>
+      </c>
+      <c r="F40">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G40">
+        <f>菜单!$E$28</f>
+      </c>
+      <c r="H40" t="s">
+        <v>478</v>
+      </c>
+      <c r="I40" t="s">
         <v>479</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J40" t="s">
         <v>480</v>
       </c>
-      <c r="J38" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="39" spans="5:10">
-      <c r="E39" t="s">
-        <v>507</v>
-      </c>
-      <c r="F39" t="str">
+      <c r="K40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
+        <v>508</v>
+      </c>
+      <c r="F41">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G39" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="H39" t="s">
+      </c>
+      <c r="G41">
+        <f>菜单!$E$29</f>
+      </c>
+      <c r="H41" t="s">
+        <v>478</v>
+      </c>
+      <c r="I41" t="s">
         <v>479</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J41" t="s">
         <v>480</v>
       </c>
-      <c r="J39" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="40" spans="5:10">
-      <c r="E40" t="s">
-        <v>508</v>
-      </c>
-      <c r="F40" t="str">
+      <c r="K41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>509</v>
+      </c>
+      <c r="F42">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G40" t="str">
-        <f>菜单SAAS版!$E$28</f>
-        <v>iam_menu-28</v>
-      </c>
-      <c r="H40" t="s">
+      </c>
+      <c r="G42">
+        <f>菜单!$E$30</f>
+      </c>
+      <c r="H42" t="s">
+        <v>478</v>
+      </c>
+      <c r="I42" t="s">
         <v>479</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J42" t="s">
         <v>480</v>
       </c>
-      <c r="J40" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="41" spans="5:10">
-      <c r="E41" t="s">
-        <v>509</v>
-      </c>
-      <c r="F41" t="str">
+      <c r="K42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
+        <v>510</v>
+      </c>
+      <c r="F43">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G41" t="str">
-        <f>菜单SAAS版!$E$29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="H41" t="s">
+      </c>
+      <c r="G43">
+        <f>菜单!$E$31</f>
+      </c>
+      <c r="H43" t="s">
+        <v>478</v>
+      </c>
+      <c r="I43" t="s">
         <v>479</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J43" t="s">
         <v>480</v>
       </c>
-      <c r="J41" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="42" spans="5:10">
-      <c r="E42" t="s">
-        <v>510</v>
-      </c>
-      <c r="F42" t="str">
+      <c r="K43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
+        <v>511</v>
+      </c>
+      <c r="F44">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G42" t="str">
-        <f>菜单SAAS版!$E$30</f>
-        <v>iam_menu-30</v>
-      </c>
-      <c r="H42" t="s">
+      </c>
+      <c r="G44">
+        <f>菜单!$E$32</f>
+      </c>
+      <c r="H44" t="s">
+        <v>478</v>
+      </c>
+      <c r="I44" t="s">
         <v>479</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J44" t="s">
         <v>480</v>
       </c>
-      <c r="J42" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="43" spans="5:10">
-      <c r="E43" t="s">
-        <v>511</v>
-      </c>
-      <c r="F43" t="str">
+      <c r="K44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>512</v>
+      </c>
+      <c r="F45">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G43" t="str">
-        <f>菜单SAAS版!$E$31</f>
-        <v>iam_menu-31</v>
-      </c>
-      <c r="H43" t="s">
+      </c>
+      <c r="G45">
+        <f>菜单!$E$33</f>
+      </c>
+      <c r="H45" t="s">
+        <v>478</v>
+      </c>
+      <c r="I45" t="s">
         <v>479</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J45" t="s">
         <v>480</v>
       </c>
-      <c r="J43" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="44" spans="5:10">
-      <c r="E44" t="s">
-        <v>512</v>
-      </c>
-      <c r="F44" t="str">
+      <c r="K45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="s">
+        <v>513</v>
+      </c>
+      <c r="F46">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G44" t="str">
-        <f>菜单SAAS版!$E$32</f>
-        <v>iam_menu-32</v>
-      </c>
-      <c r="H44" t="s">
+      </c>
+      <c r="G46">
+        <f>菜单!$E$34</f>
+      </c>
+      <c r="H46" t="s">
+        <v>478</v>
+      </c>
+      <c r="I46" t="s">
         <v>479</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J46" t="s">
         <v>480</v>
       </c>
-      <c r="J44" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="45" spans="5:10">
-      <c r="E45" t="s">
-        <v>513</v>
-      </c>
-      <c r="F45" t="str">
+      <c r="K46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="s">
+        <v>514</v>
+      </c>
+      <c r="F47">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G45" t="str">
-        <f>菜单SAAS版!$E$33</f>
-        <v>iam_menu-33</v>
-      </c>
-      <c r="H45" t="s">
+      </c>
+      <c r="G47">
+        <f>菜单!$E$36</f>
+      </c>
+      <c r="H47" t="s">
+        <v>478</v>
+      </c>
+      <c r="I47" t="s">
         <v>479</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J47" t="s">
         <v>480</v>
       </c>
-      <c r="J45" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="46" spans="5:10">
-      <c r="E46" t="s">
-        <v>514</v>
-      </c>
-      <c r="F46" t="str">
+      <c r="K47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
+        <v>515</v>
+      </c>
+      <c r="F48">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G46" t="str">
-        <f>菜单SAAS版!$E$34</f>
-        <v>iam_menu-34</v>
-      </c>
-      <c r="H46" t="s">
+      </c>
+      <c r="G48">
+        <f>菜单!$E$37</f>
+      </c>
+      <c r="H48" t="s">
+        <v>478</v>
+      </c>
+      <c r="I48" t="s">
         <v>479</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J48" t="s">
         <v>480</v>
       </c>
-      <c r="J46" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="47" spans="5:10">
-      <c r="E47" t="s">
-        <v>515</v>
-      </c>
-      <c r="F47" t="str">
+      <c r="K48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="s">
+        <v>516</v>
+      </c>
+      <c r="F49">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G47" t="str">
-        <f>菜单SAAS版!$E$36</f>
-        <v>iam_menu-36</v>
-      </c>
-      <c r="H47" t="s">
+      </c>
+      <c r="G49">
+        <f>菜单!$E$38</f>
+      </c>
+      <c r="H49" t="s">
+        <v>478</v>
+      </c>
+      <c r="I49" t="s">
         <v>479</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J49" t="s">
         <v>480</v>
       </c>
-      <c r="J47" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="48" spans="5:10">
-      <c r="E48" t="s">
-        <v>516</v>
-      </c>
-      <c r="F48" t="str">
+      <c r="K49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="s">
+        <v>517</v>
+      </c>
+      <c r="F50">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G48" t="str">
-        <f>菜单SAAS版!$E$37</f>
-        <v>iam_menu-37</v>
-      </c>
-      <c r="H48" t="s">
+      </c>
+      <c r="G50">
+        <f>菜单!$E$39</f>
+      </c>
+      <c r="H50" t="s">
+        <v>478</v>
+      </c>
+      <c r="I50" t="s">
         <v>479</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J50" t="s">
         <v>480</v>
       </c>
-      <c r="J48" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="49" spans="5:10">
-      <c r="E49" t="s">
-        <v>517</v>
-      </c>
-      <c r="F49" t="str">
+      <c r="K50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="s">
+        <v>518</v>
+      </c>
+      <c r="F51">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G49" t="str">
-        <f>菜单SAAS版!$E$38</f>
-        <v>iam_menu-38</v>
-      </c>
-      <c r="H49" t="s">
+      </c>
+      <c r="G51">
+        <f>菜单!$E$40</f>
+      </c>
+      <c r="H51" t="s">
+        <v>478</v>
+      </c>
+      <c r="I51" t="s">
         <v>479</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J51" t="s">
         <v>480</v>
       </c>
-      <c r="J49" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="50" spans="5:10">
-      <c r="E50" t="s">
-        <v>518</v>
-      </c>
-      <c r="F50" t="str">
+      <c r="K51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="s">
+        <v>519</v>
+      </c>
+      <c r="F52">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G50" t="str">
-        <f>菜单SAAS版!$E$39</f>
-        <v>iam_menu-39</v>
-      </c>
-      <c r="H50" t="s">
+      </c>
+      <c r="G52">
+        <f>菜单!$E$41</f>
+      </c>
+      <c r="H52" t="s">
+        <v>478</v>
+      </c>
+      <c r="I52" t="s">
         <v>479</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J52" t="s">
         <v>480</v>
       </c>
-      <c r="J50" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="51" spans="5:10">
-      <c r="E51" t="s">
-        <v>519</v>
-      </c>
-      <c r="F51" t="str">
+      <c r="K52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="s">
+        <v>520</v>
+      </c>
+      <c r="F53">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G51" t="str">
-        <f>菜单SAAS版!$E$40</f>
-        <v>iam_menu-40</v>
-      </c>
-      <c r="H51" t="s">
+      </c>
+      <c r="G53">
+        <f>菜单!$E$42</f>
+      </c>
+      <c r="H53" t="s">
+        <v>478</v>
+      </c>
+      <c r="I53" t="s">
         <v>479</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J53" t="s">
         <v>480</v>
       </c>
-      <c r="J51" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="52" spans="5:10">
-      <c r="E52" t="s">
-        <v>520</v>
-      </c>
-      <c r="F52" t="str">
+      <c r="K53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="s">
+        <v>521</v>
+      </c>
+      <c r="F54">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G52" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="H52" t="s">
+      </c>
+      <c r="G54">
+        <f>菜单!$E$43</f>
+      </c>
+      <c r="H54" t="s">
+        <v>478</v>
+      </c>
+      <c r="I54" t="s">
         <v>479</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J54" t="s">
         <v>480</v>
       </c>
-      <c r="J52" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="53" spans="5:10">
-      <c r="E53" t="s">
-        <v>521</v>
-      </c>
-      <c r="F53" t="str">
+      <c r="K54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="s">
+        <v>522</v>
+      </c>
+      <c r="F55">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G53" t="str">
-        <f>菜单SAAS版!$E$42</f>
-        <v>iam_menu-42</v>
-      </c>
-      <c r="H53" t="s">
+      </c>
+      <c r="G55">
+        <f>菜单!$E$45</f>
+      </c>
+      <c r="H55" t="s">
+        <v>478</v>
+      </c>
+      <c r="I55" t="s">
         <v>479</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J55" t="s">
         <v>480</v>
       </c>
-      <c r="J53" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="54" spans="5:10">
-      <c r="E54" t="s">
-        <v>522</v>
-      </c>
-      <c r="F54" t="str">
+      <c r="K55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="s">
+        <v>523</v>
+      </c>
+      <c r="F56">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G54" t="str">
-        <f>菜单SAAS版!$E$43</f>
-        <v>iam_menu-43</v>
-      </c>
-      <c r="H54" t="s">
+      </c>
+      <c r="G56">
+        <f>菜单!$E$46</f>
+      </c>
+      <c r="H56" t="s">
+        <v>478</v>
+      </c>
+      <c r="I56" t="s">
         <v>479</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J56" t="s">
         <v>480</v>
       </c>
-      <c r="J54" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="55" spans="5:10">
-      <c r="E55" t="s">
-        <v>523</v>
-      </c>
-      <c r="F55" t="str">
+      <c r="K56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="s">
+        <v>524</v>
+      </c>
+      <c r="F57">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G55" t="str">
-        <f>菜单SAAS版!$E$45</f>
-        <v>iam_menu-45</v>
-      </c>
-      <c r="H55" t="s">
+      </c>
+      <c r="G57">
+        <f>菜单!$E$47</f>
+      </c>
+      <c r="H57" t="s">
+        <v>478</v>
+      </c>
+      <c r="I57" t="s">
         <v>479</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J57" t="s">
         <v>480</v>
       </c>
-      <c r="J55" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="56" spans="5:10">
-      <c r="E56" t="s">
-        <v>524</v>
-      </c>
-      <c r="F56" t="str">
+      <c r="K57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="s">
+        <v>525</v>
+      </c>
+      <c r="F58">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G56" t="str">
-        <f>菜单SAAS版!$E$46</f>
-        <v>iam_menu-46</v>
-      </c>
-      <c r="H56" t="s">
+      </c>
+      <c r="G58">
+        <f>菜单!$E$48</f>
+      </c>
+      <c r="H58" t="s">
+        <v>478</v>
+      </c>
+      <c r="I58" t="s">
         <v>479</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J58" t="s">
         <v>480</v>
       </c>
-      <c r="J56" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="57" spans="5:10">
-      <c r="E57" t="s">
-        <v>525</v>
-      </c>
-      <c r="F57" t="str">
+      <c r="K58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="s">
+        <v>526</v>
+      </c>
+      <c r="F59">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G57" t="str">
-        <f>菜单SAAS版!$E$47</f>
-        <v>iam_menu-47</v>
-      </c>
-      <c r="H57" t="s">
+      </c>
+      <c r="G59">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="H59" t="s">
+        <v>478</v>
+      </c>
+      <c r="I59" t="s">
         <v>479</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J59" t="s">
         <v>480</v>
       </c>
-      <c r="J57" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="58" spans="5:10">
-      <c r="E58" t="s">
-        <v>526</v>
-      </c>
-      <c r="F58" t="str">
+      <c r="K59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="s">
+        <v>527</v>
+      </c>
+      <c r="F60">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G58" t="str">
-        <f>菜单SAAS版!$E$48</f>
-        <v>iam_menu-48</v>
-      </c>
-      <c r="H58" t="s">
+      </c>
+      <c r="G60">
+        <f>菜单!$E$50</f>
+      </c>
+      <c r="H60" t="s">
+        <v>478</v>
+      </c>
+      <c r="I60" t="s">
         <v>479</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J60" t="s">
         <v>480</v>
       </c>
-      <c r="J58" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="59" spans="5:10">
-      <c r="E59" t="s">
-        <v>527</v>
-      </c>
-      <c r="F59" t="str">
+      <c r="K60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="s">
+        <v>528</v>
+      </c>
+      <c r="F61">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G59" t="str">
-        <f>菜单SAAS版!$E$49</f>
-        <v>iam_menu-49</v>
-      </c>
-      <c r="H59" t="s">
+      </c>
+      <c r="G61">
+        <f>菜单!$E$51</f>
+      </c>
+      <c r="H61" t="s">
+        <v>478</v>
+      </c>
+      <c r="I61" t="s">
         <v>479</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J61" t="s">
         <v>480</v>
       </c>
-      <c r="J59" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="60" spans="5:10">
-      <c r="E60" t="s">
-        <v>528</v>
-      </c>
-      <c r="F60" t="str">
+      <c r="K61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="s">
+        <v>529</v>
+      </c>
+      <c r="F62">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G60" t="str">
-        <f>菜单SAAS版!$E$50</f>
-        <v>iam_menu-50</v>
-      </c>
-      <c r="H60" t="s">
+      </c>
+      <c r="G62">
+        <f>菜单!$E$53</f>
+      </c>
+      <c r="H62" t="s">
+        <v>478</v>
+      </c>
+      <c r="I62" t="s">
         <v>479</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J62" t="s">
         <v>480</v>
       </c>
-      <c r="J60" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="61" spans="5:10">
-      <c r="E61" t="s">
-        <v>529</v>
-      </c>
-      <c r="F61" t="str">
+      <c r="K62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="s">
+        <v>530</v>
+      </c>
+      <c r="F63">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G61" t="str">
-        <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
-      </c>
-      <c r="H61" t="s">
+      </c>
+      <c r="G63">
+        <f>菜单!$E$55</f>
+      </c>
+      <c r="H63" t="s">
+        <v>478</v>
+      </c>
+      <c r="I63" t="s">
         <v>479</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J63" t="s">
         <v>480</v>
       </c>
-      <c r="J61" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="62" spans="5:10">
-      <c r="E62" t="s">
-        <v>530</v>
-      </c>
-      <c r="F62" t="str">
+      <c r="K63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="s">
+        <v>531</v>
+      </c>
+      <c r="F64">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G62" t="str">
-        <f>菜单SAAS版!$E$53</f>
-        <v>iam_menu-53</v>
-      </c>
-      <c r="H62" t="s">
+      </c>
+      <c r="G64">
+        <f>菜单!$E$56</f>
+      </c>
+      <c r="H64" t="s">
+        <v>478</v>
+      </c>
+      <c r="I64" t="s">
         <v>479</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J64" t="s">
         <v>480</v>
       </c>
-      <c r="J62" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="63" spans="5:10">
-      <c r="E63" t="s">
-        <v>531</v>
-      </c>
-      <c r="F63" t="str">
+      <c r="K64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="s">
+        <v>532</v>
+      </c>
+      <c r="F65">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G63" t="str">
-        <f>菜单SAAS版!$E$55</f>
-        <v>iam_menu-55</v>
-      </c>
-      <c r="H63" t="s">
+      </c>
+      <c r="G65">
+        <f>菜单!$E$57</f>
+      </c>
+      <c r="H65" t="s">
+        <v>478</v>
+      </c>
+      <c r="I65" t="s">
         <v>479</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J65" t="s">
         <v>480</v>
       </c>
-      <c r="J63" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="64" spans="5:10">
-      <c r="E64" t="s">
-        <v>532</v>
-      </c>
-      <c r="F64" t="str">
+      <c r="K65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="s">
+        <v>533</v>
+      </c>
+      <c r="F66">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G64" t="str">
-        <f>菜单SAAS版!$E$56</f>
-        <v>iam_menu-56</v>
-      </c>
-      <c r="H64" t="s">
+      </c>
+      <c r="G66">
+        <f>菜单!$E$58</f>
+      </c>
+      <c r="H66" t="s">
+        <v>478</v>
+      </c>
+      <c r="I66" t="s">
         <v>479</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J66" t="s">
         <v>480</v>
       </c>
-      <c r="J64" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="65" spans="5:10">
-      <c r="E65" t="s">
-        <v>533</v>
-      </c>
-      <c r="F65" t="str">
+      <c r="K66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="s">
+        <v>534</v>
+      </c>
+      <c r="F67">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G65" t="str">
-        <f>菜单SAAS版!$E$57</f>
-        <v>iam_menu-57</v>
-      </c>
-      <c r="H65" t="s">
+      </c>
+      <c r="G67">
+        <f>菜单!$E$59</f>
+      </c>
+      <c r="H67" t="s">
+        <v>478</v>
+      </c>
+      <c r="I67" t="s">
         <v>479</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J67" t="s">
         <v>480</v>
       </c>
-      <c r="J65" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="66" spans="5:10">
-      <c r="E66" t="s">
-        <v>534</v>
-      </c>
-      <c r="F66" t="str">
+      <c r="K67" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="s">
+        <v>535</v>
+      </c>
+      <c r="F68">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G66" t="str">
-        <f>菜单SAAS版!$E$58</f>
-        <v>iam_menu-58</v>
-      </c>
-      <c r="H66" t="s">
+      </c>
+      <c r="G68">
+        <f>菜单!$E$60</f>
+      </c>
+      <c r="H68" t="s">
+        <v>478</v>
+      </c>
+      <c r="I68" t="s">
         <v>479</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J68" t="s">
         <v>480</v>
       </c>
-      <c r="J66" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="67" spans="5:10">
-      <c r="E67" t="s">
-        <v>535</v>
-      </c>
-      <c r="F67" t="str">
+      <c r="K68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="s">
+        <v>536</v>
+      </c>
+      <c r="F69">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G67" t="str">
-        <f>菜单SAAS版!$E$59</f>
-        <v>iam_menu-59</v>
-      </c>
-      <c r="H67" t="s">
+      </c>
+      <c r="G69">
+        <f>菜单!$E$61</f>
+      </c>
+      <c r="H69" t="s">
+        <v>478</v>
+      </c>
+      <c r="I69" t="s">
         <v>479</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J69" t="s">
         <v>480</v>
       </c>
-      <c r="J67" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="68" spans="5:10">
-      <c r="E68" t="s">
-        <v>536</v>
-      </c>
-      <c r="F68" t="str">
+      <c r="K69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="s">
+        <v>537</v>
+      </c>
+      <c r="F70">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G68" t="str">
-        <f>菜单SAAS版!$E$60</f>
-        <v>iam_menu-60</v>
-      </c>
-      <c r="H68" t="s">
+      </c>
+      <c r="G70">
+        <f>菜单!$E$63</f>
+      </c>
+      <c r="H70" t="s">
+        <v>478</v>
+      </c>
+      <c r="I70" t="s">
         <v>479</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J70" t="s">
         <v>480</v>
       </c>
-      <c r="J68" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="69" spans="5:10">
-      <c r="E69" t="s">
-        <v>537</v>
-      </c>
-      <c r="F69" t="str">
+      <c r="K70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="s">
+        <v>538</v>
+      </c>
+      <c r="F71">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G69" t="str">
-        <f>菜单SAAS版!$E$61</f>
-        <v>iam_menu-61</v>
-      </c>
-      <c r="H69" t="s">
+      </c>
+      <c r="G71">
+        <f>菜单!$E$64</f>
+      </c>
+      <c r="H71" t="s">
+        <v>478</v>
+      </c>
+      <c r="I71" t="s">
         <v>479</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J71" t="s">
         <v>480</v>
       </c>
-      <c r="J69" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="70" spans="5:10">
-      <c r="E70" t="s">
-        <v>538</v>
-      </c>
-      <c r="F70" t="str">
+      <c r="K71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="s">
+        <v>539</v>
+      </c>
+      <c r="F72">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G70" t="str">
-        <f>菜单SAAS版!$E$63</f>
-        <v>iam_menu-63</v>
-      </c>
-      <c r="H70" t="s">
+      </c>
+      <c r="G72">
+        <f>菜单!$E$65</f>
+      </c>
+      <c r="H72" t="s">
+        <v>478</v>
+      </c>
+      <c r="I72" t="s">
         <v>479</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J72" t="s">
         <v>480</v>
       </c>
-      <c r="J70" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="71" spans="5:10">
-      <c r="E71" t="s">
-        <v>539</v>
-      </c>
-      <c r="F71" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G71" t="str">
-        <f>菜单SAAS版!$E$64</f>
-        <v>iam_menu-64</v>
-      </c>
-      <c r="H71" t="s">
-        <v>479</v>
-      </c>
-      <c r="I71" t="s">
-        <v>480</v>
-      </c>
-      <c r="J71" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="72" spans="5:10">
-      <c r="E72" t="s">
-        <v>540</v>
-      </c>
-      <c r="F72" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G72" t="str">
-        <f>菜单SAAS版!$E$65</f>
-        <v>iam_menu-65</v>
-      </c>
-      <c r="H72" t="s">
-        <v>479</v>
-      </c>
-      <c r="I72" t="s">
-        <v>480</v>
-      </c>
-      <c r="J72" t="s">
-        <v>481</v>
+      <c r="K72" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="48" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="53">
         <v>44</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" t="s" s="54">
         <v>45</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" t="s" s="55">
         <v>9</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" t="s" s="56">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="E4" s="52" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="57">
         <v>47</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" t="s" s="58">
         <v>48</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" t="s" s="59">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -10339,66 +10384,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>540</v>
+      </c>
+      <c r="D7" t="s" s="82">
         <v>541</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="E7" t="s" s="83">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s" s="84">
         <v>542</v>
       </c>
-      <c r="E7" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="79" t="s">
+      <c r="G7" t="s" s="85">
+        <v>476</v>
+      </c>
+      <c r="H7" t="s">
         <v>543</v>
-      </c>
-      <c r="G7" s="80" t="s">
-        <v>477</v>
-      </c>
-      <c r="H7" t="s">
-        <v>544</v>
       </c>
       <c r="I7" t="s">
         <v>440</v>
       </c>
       <c r="J7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K7" t="s">
         <v>545</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>546</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>547</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>548</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>549</v>
       </c>
-      <c r="O7" t="s">
+    </row>
+    <row r="8">
+      <c r="E8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>551</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>552</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" t="s">
         <v>553</v>
       </c>
-      <c r="H8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>554</v>
       </c>
-      <c r="J8" t="s">
-        <v>555</v>
-      </c>
       <c r="K8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M8" t="s">
         <v>84</v>
@@ -10410,7 +10455,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -10418,1132 +10463,1014 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>555</v>
+      </c>
+      <c r="D10" t="s" s="86">
         <v>556</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="E10" t="s" s="87">
         <v>557</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="F10" t="s" s="88">
         <v>558</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="G10" t="s" s="89">
         <v>559</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="H10" t="s" s="90">
         <v>560</v>
       </c>
-      <c r="H10" s="85" t="s">
+      <c r="I10" t="s">
         <v>561</v>
       </c>
-      <c r="I10" t="s">
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>552</v>
+      </c>
+      <c r="G11">
+        <f>菜单!$E$8</f>
+      </c>
+      <c r="H11">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I11" t="s">
         <v>563</v>
       </c>
-      <c r="F11" t="s">
-        <v>553</v>
-      </c>
-      <c r="G11" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H11" t="str">
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>562</v>
+      </c>
+      <c r="F12" t="s">
+        <v>552</v>
+      </c>
+      <c r="G12">
+        <f>菜单!$E$9</f>
+      </c>
+      <c r="H12">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I11" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="E12" t="s">
+      </c>
+      <c r="I12" t="s">
         <v>563</v>
       </c>
-      <c r="F12" t="s">
-        <v>553</v>
-      </c>
-      <c r="G12" t="str">
-        <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
-      </c>
-      <c r="H12" t="str">
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>562</v>
+      </c>
+      <c r="F13" t="s">
+        <v>552</v>
+      </c>
+      <c r="G13">
+        <f>菜单!$E$10</f>
+      </c>
+      <c r="H13">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I12" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="E13" t="s">
+      </c>
+      <c r="I13" t="s">
         <v>563</v>
       </c>
-      <c r="F13" t="s">
-        <v>553</v>
-      </c>
-      <c r="G13" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="H13" t="str">
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>562</v>
+      </c>
+      <c r="F14" t="s">
+        <v>552</v>
+      </c>
+      <c r="G14">
+        <f>菜单!$E$11</f>
+      </c>
+      <c r="H14">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="E14" t="s">
+      </c>
+      <c r="I14" t="s">
         <v>563</v>
       </c>
-      <c r="F14" t="s">
-        <v>553</v>
-      </c>
-      <c r="G14" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="H14" t="str">
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>562</v>
+      </c>
+      <c r="F15" t="s">
+        <v>552</v>
+      </c>
+      <c r="G15">
+        <f>菜单!$E$12</f>
+      </c>
+      <c r="H15">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I14" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="E15" t="s">
+      </c>
+      <c r="I15" t="s">
         <v>563</v>
       </c>
-      <c r="F15" t="s">
-        <v>553</v>
-      </c>
-      <c r="G15" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="H15" t="str">
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>562</v>
+      </c>
+      <c r="F16" t="s">
+        <v>552</v>
+      </c>
+      <c r="G16">
+        <f>菜单!$E$13</f>
+      </c>
+      <c r="H16">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I15" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="E16" t="s">
+      </c>
+      <c r="I16" t="s">
         <v>563</v>
       </c>
-      <c r="F16" t="s">
-        <v>553</v>
-      </c>
-      <c r="G16" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
-      </c>
-      <c r="H16" t="str">
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>562</v>
+      </c>
+      <c r="F17" t="s">
+        <v>552</v>
+      </c>
+      <c r="G17">
+        <f>菜单!$E$14</f>
+      </c>
+      <c r="H17">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I16" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9">
-      <c r="E17" t="s">
+      </c>
+      <c r="I17" t="s">
         <v>563</v>
       </c>
-      <c r="F17" t="s">
-        <v>553</v>
-      </c>
-      <c r="G17" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H17" t="str">
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>562</v>
+      </c>
+      <c r="F18" t="s">
+        <v>552</v>
+      </c>
+      <c r="G18">
+        <f>菜单!$E$15</f>
+      </c>
+      <c r="H18">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I17" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9">
-      <c r="E18" t="s">
+      </c>
+      <c r="I18" t="s">
         <v>563</v>
       </c>
-      <c r="F18" t="s">
-        <v>553</v>
-      </c>
-      <c r="G18" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H18" t="str">
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>562</v>
+      </c>
+      <c r="F19" t="s">
+        <v>552</v>
+      </c>
+      <c r="G19">
+        <f>菜单!$E$16</f>
+      </c>
+      <c r="H19">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I18" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9">
-      <c r="E19" t="s">
+      </c>
+      <c r="I19" t="s">
         <v>563</v>
       </c>
-      <c r="F19" t="s">
-        <v>553</v>
-      </c>
-      <c r="G19" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H19" t="str">
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>562</v>
+      </c>
+      <c r="F20" t="s">
+        <v>552</v>
+      </c>
+      <c r="G20">
+        <f>菜单!$E$17</f>
+      </c>
+      <c r="H20">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I19" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9">
-      <c r="E20" t="s">
+      </c>
+      <c r="I20" t="s">
         <v>563</v>
       </c>
-      <c r="F20" t="s">
-        <v>553</v>
-      </c>
-      <c r="G20" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="H20" t="str">
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>562</v>
+      </c>
+      <c r="F21" t="s">
+        <v>552</v>
+      </c>
+      <c r="G21">
+        <f>菜单!$E$18</f>
+      </c>
+      <c r="H21">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I20" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="21" spans="5:9">
-      <c r="E21" t="s">
+      </c>
+      <c r="I21" t="s">
         <v>563</v>
       </c>
-      <c r="F21" t="s">
-        <v>553</v>
-      </c>
-      <c r="G21" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H21" t="str">
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>562</v>
+      </c>
+      <c r="F22" t="s">
+        <v>552</v>
+      </c>
+      <c r="G22">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="H22">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I21" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9">
-      <c r="E22" t="s">
+      </c>
+      <c r="I22" t="s">
         <v>563</v>
       </c>
-      <c r="F22" t="s">
-        <v>553</v>
-      </c>
-      <c r="G22" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H22" t="str">
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>562</v>
+      </c>
+      <c r="F23" t="s">
+        <v>552</v>
+      </c>
+      <c r="G23">
+        <f>菜单!$E$20</f>
+      </c>
+      <c r="H23">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I22" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9">
-      <c r="E23" t="s">
+      </c>
+      <c r="I23" t="s">
         <v>563</v>
       </c>
-      <c r="F23" t="s">
-        <v>553</v>
-      </c>
-      <c r="G23" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H23" t="str">
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>562</v>
+      </c>
+      <c r="F24" t="s">
+        <v>552</v>
+      </c>
+      <c r="G24">
+        <f>菜单!$E$21</f>
+      </c>
+      <c r="H24">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I23" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9">
-      <c r="E24" t="s">
+      </c>
+      <c r="I24" t="s">
         <v>563</v>
       </c>
-      <c r="F24" t="s">
-        <v>553</v>
-      </c>
-      <c r="G24" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="H24" t="str">
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>562</v>
+      </c>
+      <c r="F25" t="s">
+        <v>552</v>
+      </c>
+      <c r="G25">
+        <f>菜单!$E$22</f>
+      </c>
+      <c r="H25">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I24" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="25" spans="5:9">
-      <c r="E25" t="s">
+      </c>
+      <c r="I25" t="s">
         <v>563</v>
       </c>
-      <c r="F25" t="s">
-        <v>553</v>
-      </c>
-      <c r="G25" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
-      </c>
-      <c r="H25" t="str">
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>562</v>
+      </c>
+      <c r="F26" t="s">
+        <v>552</v>
+      </c>
+      <c r="G26">
+        <f>菜单!$E$23</f>
+      </c>
+      <c r="H26">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I25" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9">
-      <c r="E26" t="s">
+      </c>
+      <c r="I26" t="s">
         <v>563</v>
       </c>
-      <c r="F26" t="s">
-        <v>553</v>
-      </c>
-      <c r="G26" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="H26" t="str">
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>562</v>
+      </c>
+      <c r="F27" t="s">
+        <v>552</v>
+      </c>
+      <c r="G27">
+        <f>菜单!$E$24</f>
+      </c>
+      <c r="H27">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I26" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9">
-      <c r="E27" t="s">
+      </c>
+      <c r="I27" t="s">
         <v>563</v>
       </c>
-      <c r="F27" t="s">
-        <v>553</v>
-      </c>
-      <c r="G27" t="str">
-        <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
-      </c>
-      <c r="H27" t="str">
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>562</v>
+      </c>
+      <c r="F28" t="s">
+        <v>552</v>
+      </c>
+      <c r="G28">
+        <f>菜单!$E$25</f>
+      </c>
+      <c r="H28">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I27" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9">
-      <c r="E28" t="s">
+      </c>
+      <c r="I28" t="s">
         <v>563</v>
       </c>
-      <c r="F28" t="s">
-        <v>553</v>
-      </c>
-      <c r="G28" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="H28" t="str">
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>562</v>
+      </c>
+      <c r="F29" t="s">
+        <v>552</v>
+      </c>
+      <c r="G29">
+        <f>菜单!$E$26</f>
+      </c>
+      <c r="H29">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I28" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9">
-      <c r="E29" t="s">
+      </c>
+      <c r="I29" t="s">
         <v>563</v>
       </c>
-      <c r="F29" t="s">
-        <v>553</v>
-      </c>
-      <c r="G29" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
-      </c>
-      <c r="H29" t="str">
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>562</v>
+      </c>
+      <c r="F30" t="s">
+        <v>552</v>
+      </c>
+      <c r="G30">
+        <f>菜单!$E$27</f>
+      </c>
+      <c r="H30">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I29" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9">
-      <c r="E30" t="s">
+      </c>
+      <c r="I30" t="s">
         <v>563</v>
       </c>
-      <c r="F30" t="s">
-        <v>553</v>
-      </c>
-      <c r="G30" t="str">
-        <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
-      </c>
-      <c r="H30" t="str">
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>562</v>
+      </c>
+      <c r="F31" t="s">
+        <v>552</v>
+      </c>
+      <c r="G31">
+        <f>菜单!$E$28</f>
+      </c>
+      <c r="H31">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I30" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9">
-      <c r="E31" t="s">
+      </c>
+      <c r="I31" t="s">
         <v>563</v>
       </c>
-      <c r="F31" t="s">
-        <v>553</v>
-      </c>
-      <c r="G31" t="str">
-        <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
-      </c>
-      <c r="H31" t="str">
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>562</v>
+      </c>
+      <c r="F32" t="s">
+        <v>552</v>
+      </c>
+      <c r="G32">
+        <f>菜单!$E$29</f>
+      </c>
+      <c r="H32">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I31" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9">
-      <c r="E32" t="s">
+      </c>
+      <c r="I32" t="s">
         <v>563</v>
       </c>
-      <c r="F32" t="s">
-        <v>553</v>
-      </c>
-      <c r="G32" t="str">
-        <f>菜单SAAS版!$E$52</f>
-        <v>iam_menu-52</v>
-      </c>
-      <c r="H32" t="str">
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>562</v>
+      </c>
+      <c r="F33" t="s">
+        <v>552</v>
+      </c>
+      <c r="G33">
+        <f>菜单!$E$30</f>
+      </c>
+      <c r="H33">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I32" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9">
-      <c r="E33" t="s">
+      </c>
+      <c r="I33" t="s">
         <v>563</v>
       </c>
-      <c r="F33" t="s">
-        <v>553</v>
-      </c>
-      <c r="G33" t="str">
-        <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-54</v>
-      </c>
-      <c r="H33" t="str">
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>562</v>
+      </c>
+      <c r="F34" t="s">
+        <v>552</v>
+      </c>
+      <c r="G34">
+        <f>菜单!$E$31</f>
+      </c>
+      <c r="H34">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I33" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="34" spans="5:9">
-      <c r="E34" t="s">
+      </c>
+      <c r="I34" t="s">
         <v>563</v>
       </c>
-      <c r="F34" t="s">
-        <v>553</v>
-      </c>
-      <c r="G34" t="str">
-        <f>菜单SAAS版!$E$62</f>
-        <v>iam_menu-62</v>
-      </c>
-      <c r="H34" t="str">
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>562</v>
+      </c>
+      <c r="F35" t="s">
+        <v>552</v>
+      </c>
+      <c r="G35">
+        <f>菜单!$E$32</f>
+      </c>
+      <c r="H35">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I34" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9">
-      <c r="E35" t="s">
+      </c>
+      <c r="I35" t="s">
         <v>563</v>
       </c>
-      <c r="F35" t="s">
-        <v>553</v>
-      </c>
-      <c r="G35" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="H35" t="str">
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>562</v>
+      </c>
+      <c r="F36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G36">
+        <f>菜单!$E$33</f>
+      </c>
+      <c r="H36">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I35" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="36" spans="5:9">
-      <c r="E36" t="s">
+      </c>
+      <c r="I36" t="s">
         <v>563</v>
       </c>
-      <c r="F36" t="s">
-        <v>553</v>
-      </c>
-      <c r="G36" t="str">
-        <f>菜单SAAS版!$E$28</f>
-        <v>iam_menu-28</v>
-      </c>
-      <c r="H36" t="str">
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>562</v>
+      </c>
+      <c r="F37" t="s">
+        <v>552</v>
+      </c>
+      <c r="G37">
+        <f>菜单!$E$34</f>
+      </c>
+      <c r="H37">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I36" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="37" spans="5:9">
-      <c r="E37" t="s">
+      </c>
+      <c r="I37" t="s">
         <v>563</v>
       </c>
-      <c r="F37" t="s">
-        <v>553</v>
-      </c>
-      <c r="G37" t="str">
-        <f>菜单SAAS版!$E$29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="H37" t="str">
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>562</v>
+      </c>
+      <c r="F38" t="s">
+        <v>552</v>
+      </c>
+      <c r="G38">
+        <f>菜单!$E$35</f>
+      </c>
+      <c r="H38">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I37" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="38" spans="5:9">
-      <c r="E38" t="s">
+      </c>
+      <c r="I38" t="s">
         <v>563</v>
       </c>
-      <c r="F38" t="s">
-        <v>553</v>
-      </c>
-      <c r="G38" t="str">
-        <f>菜单SAAS版!$E$30</f>
-        <v>iam_menu-30</v>
-      </c>
-      <c r="H38" t="str">
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>562</v>
+      </c>
+      <c r="F39" t="s">
+        <v>552</v>
+      </c>
+      <c r="G39">
+        <f>菜单!$E$36</f>
+      </c>
+      <c r="H39">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I38" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="39" spans="5:9">
-      <c r="E39" t="s">
+      </c>
+      <c r="I39" t="s">
         <v>563</v>
       </c>
-      <c r="F39" t="s">
-        <v>553</v>
-      </c>
-      <c r="G39" t="str">
-        <f>菜单SAAS版!$E$31</f>
-        <v>iam_menu-31</v>
-      </c>
-      <c r="H39" t="str">
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>562</v>
+      </c>
+      <c r="F40" t="s">
+        <v>552</v>
+      </c>
+      <c r="G40">
+        <f>菜单!$E$37</f>
+      </c>
+      <c r="H40">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I39" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="40" spans="5:9">
-      <c r="E40" t="s">
+      </c>
+      <c r="I40" t="s">
         <v>563</v>
       </c>
-      <c r="F40" t="s">
-        <v>553</v>
-      </c>
-      <c r="G40" t="str">
-        <f>菜单SAAS版!$E$32</f>
-        <v>iam_menu-32</v>
-      </c>
-      <c r="H40" t="str">
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
+        <v>562</v>
+      </c>
+      <c r="F41" t="s">
+        <v>552</v>
+      </c>
+      <c r="G41">
+        <f>菜单!$E$38</f>
+      </c>
+      <c r="H41">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I40" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="41" spans="5:9">
-      <c r="E41" t="s">
+      </c>
+      <c r="I41" t="s">
         <v>563</v>
       </c>
-      <c r="F41" t="s">
-        <v>553</v>
-      </c>
-      <c r="G41" t="str">
-        <f>菜单SAAS版!$E$33</f>
-        <v>iam_menu-33</v>
-      </c>
-      <c r="H41" t="str">
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>562</v>
+      </c>
+      <c r="F42" t="s">
+        <v>552</v>
+      </c>
+      <c r="G42">
+        <f>菜单!$E$39</f>
+      </c>
+      <c r="H42">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I41" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="42" spans="5:9">
-      <c r="E42" t="s">
+      </c>
+      <c r="I42" t="s">
         <v>563</v>
       </c>
-      <c r="F42" t="s">
-        <v>553</v>
-      </c>
-      <c r="G42" t="str">
-        <f>菜单SAAS版!$E$34</f>
-        <v>iam_menu-34</v>
-      </c>
-      <c r="H42" t="str">
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
+        <v>562</v>
+      </c>
+      <c r="F43" t="s">
+        <v>552</v>
+      </c>
+      <c r="G43">
+        <f>菜单!$E$40</f>
+      </c>
+      <c r="H43">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I42" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="43" spans="5:9">
-      <c r="E43" t="s">
+      </c>
+      <c r="I43" t="s">
         <v>563</v>
       </c>
-      <c r="F43" t="s">
-        <v>553</v>
-      </c>
-      <c r="G43" t="str">
-        <f>菜单SAAS版!$E$36</f>
-        <v>iam_menu-36</v>
-      </c>
-      <c r="H43" t="str">
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
+        <v>562</v>
+      </c>
+      <c r="F44" t="s">
+        <v>552</v>
+      </c>
+      <c r="G44">
+        <f>菜单!$E$41</f>
+      </c>
+      <c r="H44">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I43" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="44" spans="5:9">
-      <c r="E44" t="s">
+      </c>
+      <c r="I44" t="s">
         <v>563</v>
       </c>
-      <c r="F44" t="s">
-        <v>553</v>
-      </c>
-      <c r="G44" t="str">
-        <f>菜单SAAS版!$E$37</f>
-        <v>iam_menu-37</v>
-      </c>
-      <c r="H44" t="str">
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>562</v>
+      </c>
+      <c r="F45" t="s">
+        <v>552</v>
+      </c>
+      <c r="G45">
+        <f>菜单!$E$42</f>
+      </c>
+      <c r="H45">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I44" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="45" spans="5:9">
-      <c r="E45" t="s">
+      </c>
+      <c r="I45" t="s">
         <v>563</v>
       </c>
-      <c r="F45" t="s">
-        <v>553</v>
-      </c>
-      <c r="G45" t="str">
-        <f>菜单SAAS版!$E$38</f>
-        <v>iam_menu-38</v>
-      </c>
-      <c r="H45" t="str">
+    </row>
+    <row r="46">
+      <c r="E46" t="s">
+        <v>562</v>
+      </c>
+      <c r="F46" t="s">
+        <v>552</v>
+      </c>
+      <c r="G46">
+        <f>菜单!$E$43</f>
+      </c>
+      <c r="H46">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I45" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="46" spans="5:9">
-      <c r="E46" t="s">
+      </c>
+      <c r="I46" t="s">
         <v>563</v>
       </c>
-      <c r="F46" t="s">
-        <v>553</v>
-      </c>
-      <c r="G46" t="str">
-        <f>菜单SAAS版!$E$39</f>
-        <v>iam_menu-39</v>
-      </c>
-      <c r="H46" t="str">
+    </row>
+    <row r="47">
+      <c r="E47" t="s">
+        <v>562</v>
+      </c>
+      <c r="F47" t="s">
+        <v>552</v>
+      </c>
+      <c r="G47">
+        <f>菜单!$E$44</f>
+      </c>
+      <c r="H47">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I46" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="47" spans="5:9">
-      <c r="E47" t="s">
+      </c>
+      <c r="I47" t="s">
         <v>563</v>
       </c>
-      <c r="F47" t="s">
-        <v>553</v>
-      </c>
-      <c r="G47" t="str">
-        <f>菜单SAAS版!$E$40</f>
-        <v>iam_menu-40</v>
-      </c>
-      <c r="H47" t="str">
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
+        <v>562</v>
+      </c>
+      <c r="F48" t="s">
+        <v>552</v>
+      </c>
+      <c r="G48">
+        <f>菜单!$E$45</f>
+      </c>
+      <c r="H48">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I47" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="48" spans="5:9">
-      <c r="E48" t="s">
+      </c>
+      <c r="I48" t="s">
         <v>563</v>
       </c>
-      <c r="F48" t="s">
-        <v>553</v>
-      </c>
-      <c r="G48" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="H48" t="str">
+    </row>
+    <row r="49">
+      <c r="E49" t="s">
+        <v>562</v>
+      </c>
+      <c r="F49" t="s">
+        <v>552</v>
+      </c>
+      <c r="G49">
+        <f>菜单!$E$46</f>
+      </c>
+      <c r="H49">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I48" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="49" spans="5:9">
-      <c r="E49" t="s">
+      </c>
+      <c r="I49" t="s">
         <v>563</v>
       </c>
-      <c r="F49" t="s">
-        <v>553</v>
-      </c>
-      <c r="G49" t="str">
-        <f>菜单SAAS版!$E$42</f>
-        <v>iam_menu-42</v>
-      </c>
-      <c r="H49" t="str">
+    </row>
+    <row r="50">
+      <c r="E50" t="s">
+        <v>562</v>
+      </c>
+      <c r="F50" t="s">
+        <v>552</v>
+      </c>
+      <c r="G50">
+        <f>菜单!$E$47</f>
+      </c>
+      <c r="H50">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I49" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="50" spans="5:9">
-      <c r="E50" t="s">
+      </c>
+      <c r="I50" t="s">
         <v>563</v>
       </c>
-      <c r="F50" t="s">
-        <v>553</v>
-      </c>
-      <c r="G50" t="str">
-        <f>菜单SAAS版!$E$43</f>
-        <v>iam_menu-43</v>
-      </c>
-      <c r="H50" t="str">
+    </row>
+    <row r="51">
+      <c r="E51" t="s">
+        <v>562</v>
+      </c>
+      <c r="F51" t="s">
+        <v>552</v>
+      </c>
+      <c r="G51">
+        <f>菜单!$E$48</f>
+      </c>
+      <c r="H51">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I50" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="51" spans="5:9">
-      <c r="E51" t="s">
+      </c>
+      <c r="I51" t="s">
         <v>563</v>
       </c>
-      <c r="F51" t="s">
-        <v>553</v>
-      </c>
-      <c r="G51" t="str">
-        <f>菜单SAAS版!$E$45</f>
-        <v>iam_menu-45</v>
-      </c>
-      <c r="H51" t="str">
+    </row>
+    <row r="52">
+      <c r="E52" t="s">
+        <v>562</v>
+      </c>
+      <c r="F52" t="s">
+        <v>552</v>
+      </c>
+      <c r="G52">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="H52">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I51" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="52" spans="5:9">
-      <c r="E52" t="s">
+      </c>
+      <c r="I52" t="s">
         <v>563</v>
       </c>
-      <c r="F52" t="s">
-        <v>553</v>
-      </c>
-      <c r="G52" t="str">
-        <f>菜单SAAS版!$E$46</f>
-        <v>iam_menu-46</v>
-      </c>
-      <c r="H52" t="str">
+    </row>
+    <row r="53">
+      <c r="E53" t="s">
+        <v>562</v>
+      </c>
+      <c r="F53" t="s">
+        <v>552</v>
+      </c>
+      <c r="G53">
+        <f>菜单!$E$50</f>
+      </c>
+      <c r="H53">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I52" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="53" spans="5:9">
-      <c r="E53" t="s">
+      </c>
+      <c r="I53" t="s">
         <v>563</v>
       </c>
-      <c r="F53" t="s">
-        <v>553</v>
-      </c>
-      <c r="G53" t="str">
-        <f>菜单SAAS版!$E$47</f>
-        <v>iam_menu-47</v>
-      </c>
-      <c r="H53" t="str">
+    </row>
+    <row r="54">
+      <c r="E54" t="s">
+        <v>562</v>
+      </c>
+      <c r="F54" t="s">
+        <v>552</v>
+      </c>
+      <c r="G54">
+        <f>菜单!$E$51</f>
+      </c>
+      <c r="H54">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I53" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="54" spans="5:9">
-      <c r="E54" t="s">
+      </c>
+      <c r="I54" t="s">
         <v>563</v>
       </c>
-      <c r="F54" t="s">
-        <v>553</v>
-      </c>
-      <c r="G54" t="str">
-        <f>菜单SAAS版!$E$48</f>
-        <v>iam_menu-48</v>
-      </c>
-      <c r="H54" t="str">
+    </row>
+    <row r="55">
+      <c r="E55" t="s">
+        <v>562</v>
+      </c>
+      <c r="F55" t="s">
+        <v>552</v>
+      </c>
+      <c r="G55">
+        <f>菜单!$E$52</f>
+      </c>
+      <c r="H55">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I54" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="55" spans="5:9">
-      <c r="E55" t="s">
+      </c>
+      <c r="I55" t="s">
         <v>563</v>
       </c>
-      <c r="F55" t="s">
-        <v>553</v>
-      </c>
-      <c r="G55" t="str">
-        <f>菜单SAAS版!$E$49</f>
-        <v>iam_menu-49</v>
-      </c>
-      <c r="H55" t="str">
+    </row>
+    <row r="56">
+      <c r="E56" t="s">
+        <v>562</v>
+      </c>
+      <c r="F56" t="s">
+        <v>552</v>
+      </c>
+      <c r="G56">
+        <f>菜单!$E$53</f>
+      </c>
+      <c r="H56">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I55" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="56" spans="5:9">
-      <c r="E56" t="s">
+      </c>
+      <c r="I56" t="s">
         <v>563</v>
       </c>
-      <c r="F56" t="s">
-        <v>553</v>
-      </c>
-      <c r="G56" t="str">
-        <f>菜单SAAS版!$E$50</f>
-        <v>iam_menu-50</v>
-      </c>
-      <c r="H56" t="str">
+    </row>
+    <row r="57">
+      <c r="E57" t="s">
+        <v>562</v>
+      </c>
+      <c r="F57" t="s">
+        <v>552</v>
+      </c>
+      <c r="G57">
+        <f>菜单!$E$54</f>
+      </c>
+      <c r="H57">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I56" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="57" spans="5:9">
-      <c r="E57" t="s">
+      </c>
+      <c r="I57" t="s">
         <v>563</v>
       </c>
-      <c r="F57" t="s">
-        <v>553</v>
-      </c>
-      <c r="G57" t="str">
-        <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
-      </c>
-      <c r="H57" t="str">
+    </row>
+    <row r="58">
+      <c r="E58" t="s">
+        <v>562</v>
+      </c>
+      <c r="F58" t="s">
+        <v>552</v>
+      </c>
+      <c r="G58">
+        <f>菜单!$E$55</f>
+      </c>
+      <c r="H58">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I57" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="58" spans="5:9">
-      <c r="E58" t="s">
+      </c>
+      <c r="I58" t="s">
         <v>563</v>
       </c>
-      <c r="F58" t="s">
-        <v>553</v>
-      </c>
-      <c r="G58" t="str">
-        <f>菜单SAAS版!$E$53</f>
-        <v>iam_menu-53</v>
-      </c>
-      <c r="H58" t="str">
+    </row>
+    <row r="59">
+      <c r="E59" t="s">
+        <v>562</v>
+      </c>
+      <c r="F59" t="s">
+        <v>552</v>
+      </c>
+      <c r="G59">
+        <f>菜单!$E$56</f>
+      </c>
+      <c r="H59">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I58" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="59" spans="5:9">
-      <c r="E59" t="s">
+      </c>
+      <c r="I59" t="s">
         <v>563</v>
       </c>
-      <c r="F59" t="s">
-        <v>553</v>
-      </c>
-      <c r="G59" t="str">
-        <f>菜单SAAS版!$E$55</f>
-        <v>iam_menu-55</v>
-      </c>
-      <c r="H59" t="str">
+    </row>
+    <row r="60">
+      <c r="E60" t="s">
+        <v>562</v>
+      </c>
+      <c r="F60" t="s">
+        <v>552</v>
+      </c>
+      <c r="G60">
+        <f>菜单!$E$57</f>
+      </c>
+      <c r="H60">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I59" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="60" spans="5:9">
-      <c r="E60" t="s">
+      </c>
+      <c r="I60" t="s">
         <v>563</v>
       </c>
-      <c r="F60" t="s">
-        <v>553</v>
-      </c>
-      <c r="G60" t="str">
-        <f>菜单SAAS版!$E$56</f>
-        <v>iam_menu-56</v>
-      </c>
-      <c r="H60" t="str">
+    </row>
+    <row r="61">
+      <c r="E61" t="s">
+        <v>562</v>
+      </c>
+      <c r="F61" t="s">
+        <v>552</v>
+      </c>
+      <c r="G61">
+        <f>菜单!$E$58</f>
+      </c>
+      <c r="H61">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I60" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="61" spans="5:9">
-      <c r="E61" t="s">
+      </c>
+      <c r="I61" t="s">
         <v>563</v>
       </c>
-      <c r="F61" t="s">
-        <v>553</v>
-      </c>
-      <c r="G61" t="str">
-        <f>菜单SAAS版!$E$57</f>
-        <v>iam_menu-57</v>
-      </c>
-      <c r="H61" t="str">
+    </row>
+    <row r="62">
+      <c r="E62" t="s">
+        <v>562</v>
+      </c>
+      <c r="F62" t="s">
+        <v>552</v>
+      </c>
+      <c r="G62">
+        <f>菜单!$E$59</f>
+      </c>
+      <c r="H62">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I61" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="62" spans="5:9">
-      <c r="E62" t="s">
+      </c>
+      <c r="I62" t="s">
         <v>563</v>
       </c>
-      <c r="F62" t="s">
-        <v>553</v>
-      </c>
-      <c r="G62" t="str">
-        <f>菜单SAAS版!$E$58</f>
-        <v>iam_menu-58</v>
-      </c>
-      <c r="H62" t="str">
+    </row>
+    <row r="63">
+      <c r="E63" t="s">
+        <v>562</v>
+      </c>
+      <c r="F63" t="s">
+        <v>552</v>
+      </c>
+      <c r="G63">
+        <f>菜单!$E$60</f>
+      </c>
+      <c r="H63">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I62" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="63" spans="5:9">
-      <c r="E63" t="s">
+      </c>
+      <c r="I63" t="s">
         <v>563</v>
       </c>
-      <c r="F63" t="s">
-        <v>553</v>
-      </c>
-      <c r="G63" t="str">
-        <f>菜单SAAS版!$E$59</f>
-        <v>iam_menu-59</v>
-      </c>
-      <c r="H63" t="str">
+    </row>
+    <row r="64">
+      <c r="E64" t="s">
+        <v>562</v>
+      </c>
+      <c r="F64" t="s">
+        <v>552</v>
+      </c>
+      <c r="G64">
+        <f>菜单!$E$61</f>
+      </c>
+      <c r="H64">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I63" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="64" spans="5:9">
-      <c r="E64" t="s">
+      </c>
+      <c r="I64" t="s">
         <v>563</v>
       </c>
-      <c r="F64" t="s">
-        <v>553</v>
-      </c>
-      <c r="G64" t="str">
-        <f>菜单SAAS版!$E$60</f>
-        <v>iam_menu-60</v>
-      </c>
-      <c r="H64" t="str">
+    </row>
+    <row r="65">
+      <c r="E65" t="s">
+        <v>562</v>
+      </c>
+      <c r="F65" t="s">
+        <v>552</v>
+      </c>
+      <c r="G65">
+        <f>菜单!$E$62</f>
+      </c>
+      <c r="H65">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I64" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="65" spans="5:9">
-      <c r="E65" t="s">
+      </c>
+      <c r="I65" t="s">
         <v>563</v>
       </c>
-      <c r="F65" t="s">
-        <v>553</v>
-      </c>
-      <c r="G65" t="str">
-        <f>菜单SAAS版!$E$61</f>
-        <v>iam_menu-61</v>
-      </c>
-      <c r="H65" t="str">
+    </row>
+    <row r="66">
+      <c r="E66" t="s">
+        <v>562</v>
+      </c>
+      <c r="F66" t="s">
+        <v>552</v>
+      </c>
+      <c r="G66">
+        <f>菜单!$E$63</f>
+      </c>
+      <c r="H66">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I65" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="66" spans="5:9">
-      <c r="E66" t="s">
+      </c>
+      <c r="I66" t="s">
         <v>563</v>
       </c>
-      <c r="F66" t="s">
-        <v>553</v>
-      </c>
-      <c r="G66" t="str">
-        <f>菜单SAAS版!$E$63</f>
-        <v>iam_menu-63</v>
-      </c>
-      <c r="H66" t="str">
+    </row>
+    <row r="67">
+      <c r="E67" t="s">
+        <v>562</v>
+      </c>
+      <c r="F67" t="s">
+        <v>552</v>
+      </c>
+      <c r="G67">
+        <f>菜单!$E$64</f>
+      </c>
+      <c r="H67">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I66" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="67" spans="5:9">
-      <c r="E67" t="s">
+      </c>
+      <c r="I67" t="s">
         <v>563</v>
       </c>
-      <c r="F67" t="s">
-        <v>553</v>
-      </c>
-      <c r="G67" t="str">
-        <f>菜单SAAS版!$E$64</f>
-        <v>iam_menu-64</v>
-      </c>
-      <c r="H67" t="str">
+    </row>
+    <row r="68">
+      <c r="E68" t="s">
+        <v>562</v>
+      </c>
+      <c r="F68" t="s">
+        <v>552</v>
+      </c>
+      <c r="G68">
+        <f>菜单!$E$65</f>
+      </c>
+      <c r="H68">
         <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I67" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="68" spans="5:9">
-      <c r="E68" t="s">
+      </c>
+      <c r="I68" t="s">
         <v>563</v>
       </c>
-      <c r="F68" t="s">
-        <v>553</v>
-      </c>
-      <c r="G68" t="str">
-        <f>菜单SAAS版!$E$65</f>
-        <v>iam_menu-65</v>
-      </c>
-      <c r="H68" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I68" t="s">
-        <v>564</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>